--- a/INTLINE/data/134/DEUSTATIS/National accounts - saving of households quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - saving of households quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="67">
   <si>
     <t>National accounts - Disposable income, saving of households:
 Germany, quarters, original and adjusted data</t>
@@ -123,6 +123,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>Quarter 1</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
   </si>
   <si>
     <t>EUR bn</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t xml:space="preserve"> - Employers' social contributions</t>
@@ -207,7 +213,7 @@
     <t>Including non-profit institutions serving households.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:18:08</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:54:59</t>
   </si>
 </sst>
 </file>
@@ -773,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="528">
+  <cellXfs count="544">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -1330,6 +1336,22 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -1834,6 +1856,22 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -2350,6 +2388,22 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -2360,6 +2414,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -2893,586 +2963,604 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="276">
+      <c r="A4" t="s" s="284">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="277">
+      <c r="B4" t="s" s="285">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="278">
+      <c r="C4" t="s" s="286">
         <v>5</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="280"/>
-      <c r="F4" s="281"/>
-      <c r="G4" t="s" s="282">
+      <c r="D4" s="287"/>
+      <c r="E4" s="288"/>
+      <c r="F4" s="289"/>
+      <c r="G4" t="s" s="290">
         <v>6</v>
       </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="285"/>
-      <c r="K4" t="s" s="286">
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="293"/>
+      <c r="K4" t="s" s="294">
         <v>7</v>
       </c>
-      <c r="L4" s="287"/>
-      <c r="M4" s="288"/>
-      <c r="N4" s="289"/>
-      <c r="O4" t="s" s="290">
+      <c r="L4" s="295"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="297"/>
+      <c r="O4" t="s" s="298">
         <v>8</v>
       </c>
-      <c r="P4" s="291"/>
-      <c r="Q4" s="292"/>
-      <c r="R4" s="293"/>
-      <c r="S4" t="s" s="294">
+      <c r="P4" s="299"/>
+      <c r="Q4" s="300"/>
+      <c r="R4" s="301"/>
+      <c r="S4" t="s" s="302">
         <v>9</v>
       </c>
-      <c r="T4" s="295"/>
-      <c r="U4" s="296"/>
-      <c r="V4" s="297"/>
-      <c r="W4" t="s" s="298">
+      <c r="T4" s="303"/>
+      <c r="U4" s="304"/>
+      <c r="V4" s="305"/>
+      <c r="W4" t="s" s="306">
         <v>10</v>
       </c>
-      <c r="X4" s="299"/>
-      <c r="Y4" s="300"/>
-      <c r="Z4" s="301"/>
-      <c r="AA4" t="s" s="302">
+      <c r="X4" s="307"/>
+      <c r="Y4" s="308"/>
+      <c r="Z4" s="309"/>
+      <c r="AA4" t="s" s="310">
         <v>11</v>
       </c>
-      <c r="AB4" s="303"/>
-      <c r="AC4" s="304"/>
-      <c r="AD4" s="305"/>
-      <c r="AE4" t="s" s="306">
+      <c r="AB4" s="311"/>
+      <c r="AC4" s="312"/>
+      <c r="AD4" s="313"/>
+      <c r="AE4" t="s" s="314">
         <v>12</v>
       </c>
-      <c r="AF4" s="307"/>
-      <c r="AG4" s="308"/>
-      <c r="AH4" s="309"/>
-      <c r="AI4" t="s" s="310">
+      <c r="AF4" s="315"/>
+      <c r="AG4" s="316"/>
+      <c r="AH4" s="317"/>
+      <c r="AI4" t="s" s="318">
         <v>13</v>
       </c>
-      <c r="AJ4" s="311"/>
-      <c r="AK4" s="312"/>
-      <c r="AL4" s="313"/>
-      <c r="AM4" t="s" s="314">
+      <c r="AJ4" s="319"/>
+      <c r="AK4" s="320"/>
+      <c r="AL4" s="321"/>
+      <c r="AM4" t="s" s="322">
         <v>14</v>
       </c>
-      <c r="AN4" s="315"/>
-      <c r="AO4" s="316"/>
-      <c r="AP4" s="317"/>
-      <c r="AQ4" t="s" s="318">
+      <c r="AN4" s="323"/>
+      <c r="AO4" s="324"/>
+      <c r="AP4" s="325"/>
+      <c r="AQ4" t="s" s="326">
         <v>15</v>
       </c>
-      <c r="AR4" s="319"/>
-      <c r="AS4" s="320"/>
-      <c r="AT4" s="321"/>
-      <c r="AU4" t="s" s="322">
+      <c r="AR4" s="327"/>
+      <c r="AS4" s="328"/>
+      <c r="AT4" s="329"/>
+      <c r="AU4" t="s" s="330">
         <v>16</v>
       </c>
-      <c r="AV4" s="323"/>
-      <c r="AW4" s="324"/>
-      <c r="AX4" s="325"/>
-      <c r="AY4" t="s" s="326">
+      <c r="AV4" s="331"/>
+      <c r="AW4" s="332"/>
+      <c r="AX4" s="333"/>
+      <c r="AY4" t="s" s="334">
         <v>17</v>
       </c>
-      <c r="AZ4" s="327"/>
-      <c r="BA4" s="328"/>
-      <c r="BB4" s="329"/>
-      <c r="BC4" t="s" s="330">
+      <c r="AZ4" s="335"/>
+      <c r="BA4" s="336"/>
+      <c r="BB4" s="337"/>
+      <c r="BC4" t="s" s="338">
         <v>18</v>
       </c>
-      <c r="BD4" s="331"/>
-      <c r="BE4" s="332"/>
-      <c r="BF4" s="333"/>
-      <c r="BG4" t="s" s="334">
+      <c r="BD4" s="339"/>
+      <c r="BE4" s="340"/>
+      <c r="BF4" s="341"/>
+      <c r="BG4" t="s" s="342">
         <v>19</v>
       </c>
-      <c r="BH4" s="335"/>
-      <c r="BI4" s="336"/>
-      <c r="BJ4" s="337"/>
-      <c r="BK4" t="s" s="338">
+      <c r="BH4" s="343"/>
+      <c r="BI4" s="344"/>
+      <c r="BJ4" s="345"/>
+      <c r="BK4" t="s" s="346">
         <v>20</v>
       </c>
-      <c r="BL4" s="339"/>
-      <c r="BM4" s="340"/>
-      <c r="BN4" s="341"/>
-      <c r="BO4" t="s" s="342">
+      <c r="BL4" s="347"/>
+      <c r="BM4" s="348"/>
+      <c r="BN4" s="349"/>
+      <c r="BO4" t="s" s="350">
         <v>21</v>
       </c>
-      <c r="BP4" s="343"/>
-      <c r="BQ4" s="344"/>
-      <c r="BR4" s="345"/>
-      <c r="BS4" t="s" s="346">
+      <c r="BP4" s="351"/>
+      <c r="BQ4" s="352"/>
+      <c r="BR4" s="353"/>
+      <c r="BS4" t="s" s="354">
         <v>22</v>
       </c>
-      <c r="BT4" s="347"/>
-      <c r="BU4" s="348"/>
-      <c r="BV4" s="349"/>
-      <c r="BW4" t="s" s="350">
+      <c r="BT4" s="355"/>
+      <c r="BU4" s="356"/>
+      <c r="BV4" s="357"/>
+      <c r="BW4" t="s" s="358">
         <v>23</v>
       </c>
-      <c r="BX4" s="351"/>
-      <c r="BY4" s="352"/>
-      <c r="BZ4" s="353"/>
-      <c r="CA4" t="s" s="354">
+      <c r="BX4" s="359"/>
+      <c r="BY4" s="360"/>
+      <c r="BZ4" s="361"/>
+      <c r="CA4" t="s" s="362">
         <v>24</v>
       </c>
-      <c r="CB4" s="355"/>
-      <c r="CC4" s="356"/>
-      <c r="CD4" s="357"/>
-      <c r="CE4" t="s" s="358">
+      <c r="CB4" s="363"/>
+      <c r="CC4" s="364"/>
+      <c r="CD4" s="365"/>
+      <c r="CE4" t="s" s="366">
         <v>25</v>
       </c>
-      <c r="CF4" s="359"/>
-      <c r="CG4" s="360"/>
-      <c r="CH4" s="361"/>
-      <c r="CI4" t="s" s="362">
+      <c r="CF4" s="367"/>
+      <c r="CG4" s="368"/>
+      <c r="CH4" s="369"/>
+      <c r="CI4" t="s" s="370">
         <v>26</v>
       </c>
-      <c r="CJ4" s="363"/>
-      <c r="CK4" s="364"/>
-      <c r="CL4" s="365"/>
-      <c r="CM4" t="s" s="366">
+      <c r="CJ4" s="371"/>
+      <c r="CK4" s="372"/>
+      <c r="CL4" s="373"/>
+      <c r="CM4" t="s" s="374">
         <v>27</v>
       </c>
-      <c r="CN4" s="367"/>
-      <c r="CO4" s="368"/>
-      <c r="CP4" s="369"/>
-      <c r="CQ4" t="s" s="370">
+      <c r="CN4" s="375"/>
+      <c r="CO4" s="376"/>
+      <c r="CP4" s="377"/>
+      <c r="CQ4" t="s" s="378">
         <v>28</v>
       </c>
-      <c r="CR4" s="371"/>
-      <c r="CS4" s="372"/>
-      <c r="CT4" s="373"/>
-      <c r="CU4" t="s" s="374">
+      <c r="CR4" s="379"/>
+      <c r="CS4" s="380"/>
+      <c r="CT4" s="381"/>
+      <c r="CU4" t="s" s="382">
         <v>29</v>
       </c>
-      <c r="CV4" s="375"/>
-      <c r="CW4" s="376"/>
-      <c r="CX4" s="377"/>
-      <c r="CY4" t="s" s="378">
+      <c r="CV4" s="383"/>
+      <c r="CW4" s="384"/>
+      <c r="CX4" s="385"/>
+      <c r="CY4" t="s" s="386">
         <v>30</v>
       </c>
-      <c r="CZ4" s="379"/>
-      <c r="DA4" s="380"/>
-      <c r="DB4" s="381"/>
-      <c r="DC4" t="s" s="382">
+      <c r="CZ4" s="387"/>
+      <c r="DA4" s="388"/>
+      <c r="DB4" s="389"/>
+      <c r="DC4" t="s" s="390">
         <v>31</v>
       </c>
-      <c r="DD4" s="383"/>
-      <c r="DE4" s="384"/>
-      <c r="DF4" s="385"/>
-      <c r="DG4" t="s" s="386">
+      <c r="DD4" s="391"/>
+      <c r="DE4" s="392"/>
+      <c r="DF4" s="393"/>
+      <c r="DG4" t="s" s="394">
         <v>32</v>
       </c>
-      <c r="DH4" s="387"/>
-      <c r="DI4" s="388"/>
-      <c r="DJ4" s="389"/>
-      <c r="DK4" t="s" s="390">
+      <c r="DH4" s="395"/>
+      <c r="DI4" s="396"/>
+      <c r="DJ4" s="397"/>
+      <c r="DK4" t="s" s="398">
         <v>33</v>
       </c>
-      <c r="DL4" s="391"/>
-      <c r="DM4" s="392"/>
-      <c r="DN4" s="393"/>
-      <c r="DO4" t="s" s="394">
+      <c r="DL4" s="399"/>
+      <c r="DM4" s="400"/>
+      <c r="DN4" s="401"/>
+      <c r="DO4" t="s" s="402">
         <v>34</v>
       </c>
-      <c r="DP4" s="395"/>
-      <c r="DQ4" s="396"/>
-      <c r="DR4" s="397"/>
-      <c r="DS4" t="s" s="398">
+      <c r="DP4" s="403"/>
+      <c r="DQ4" s="404"/>
+      <c r="DR4" s="405"/>
+      <c r="DS4" t="s" s="406">
         <v>35</v>
       </c>
-      <c r="DT4" s="399"/>
-      <c r="DU4" s="400"/>
-      <c r="DV4" s="401"/>
+      <c r="DT4" s="407"/>
+      <c r="DU4" s="408"/>
+      <c r="DV4" s="409"/>
+      <c r="DW4" t="s" s="410">
+        <v>36</v>
+      </c>
+      <c r="DX4" s="411"/>
+      <c r="DY4" s="412"/>
+      <c r="DZ4" s="413"/>
     </row>
     <row r="5">
-      <c r="A5" s="402"/>
-      <c r="B5" s="403"/>
-      <c r="C5" t="s" s="404">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s" s="405">
+      <c r="A5" s="414"/>
+      <c r="B5" s="415"/>
+      <c r="C5" t="s" s="416">
         <v>37</v>
       </c>
-      <c r="E5" t="s" s="406">
+      <c r="D5" t="s" s="417">
         <v>38</v>
       </c>
-      <c r="F5" t="s" s="407">
+      <c r="E5" t="s" s="418">
         <v>39</v>
       </c>
-      <c r="G5" t="s" s="408">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s" s="409">
+      <c r="F5" t="s" s="419">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="420">
         <v>37</v>
       </c>
-      <c r="I5" t="s" s="410">
+      <c r="H5" t="s" s="421">
         <v>38</v>
       </c>
-      <c r="J5" t="s" s="411">
+      <c r="I5" t="s" s="422">
         <v>39</v>
       </c>
-      <c r="K5" t="s" s="412">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s" s="413">
+      <c r="J5" t="s" s="423">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s" s="424">
         <v>37</v>
       </c>
-      <c r="M5" t="s" s="414">
+      <c r="L5" t="s" s="425">
         <v>38</v>
       </c>
-      <c r="N5" t="s" s="415">
+      <c r="M5" t="s" s="426">
         <v>39</v>
       </c>
-      <c r="O5" t="s" s="416">
-        <v>36</v>
-      </c>
-      <c r="P5" t="s" s="417">
+      <c r="N5" t="s" s="427">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s" s="428">
         <v>37</v>
       </c>
-      <c r="Q5" t="s" s="418">
+      <c r="P5" t="s" s="429">
         <v>38</v>
       </c>
-      <c r="R5" t="s" s="419">
+      <c r="Q5" t="s" s="430">
         <v>39</v>
       </c>
-      <c r="S5" t="s" s="420">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s" s="421">
+      <c r="R5" t="s" s="431">
+        <v>40</v>
+      </c>
+      <c r="S5" t="s" s="432">
         <v>37</v>
       </c>
-      <c r="U5" t="s" s="422">
+      <c r="T5" t="s" s="433">
         <v>38</v>
       </c>
-      <c r="V5" t="s" s="423">
+      <c r="U5" t="s" s="434">
         <v>39</v>
       </c>
-      <c r="W5" t="s" s="424">
-        <v>36</v>
-      </c>
-      <c r="X5" t="s" s="425">
+      <c r="V5" t="s" s="435">
+        <v>40</v>
+      </c>
+      <c r="W5" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="Y5" t="s" s="426">
+      <c r="X5" t="s" s="437">
         <v>38</v>
       </c>
-      <c r="Z5" t="s" s="427">
+      <c r="Y5" t="s" s="438">
         <v>39</v>
       </c>
-      <c r="AA5" t="s" s="428">
-        <v>36</v>
-      </c>
-      <c r="AB5" t="s" s="429">
+      <c r="Z5" t="s" s="439">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s" s="440">
         <v>37</v>
       </c>
-      <c r="AC5" t="s" s="430">
+      <c r="AB5" t="s" s="441">
         <v>38</v>
       </c>
-      <c r="AD5" t="s" s="431">
+      <c r="AC5" t="s" s="442">
         <v>39</v>
       </c>
-      <c r="AE5" t="s" s="432">
-        <v>36</v>
-      </c>
-      <c r="AF5" t="s" s="433">
+      <c r="AD5" t="s" s="443">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="s" s="444">
         <v>37</v>
       </c>
-      <c r="AG5" t="s" s="434">
+      <c r="AF5" t="s" s="445">
         <v>38</v>
       </c>
-      <c r="AH5" t="s" s="435">
+      <c r="AG5" t="s" s="446">
         <v>39</v>
       </c>
-      <c r="AI5" t="s" s="436">
-        <v>36</v>
-      </c>
-      <c r="AJ5" t="s" s="437">
+      <c r="AH5" t="s" s="447">
+        <v>40</v>
+      </c>
+      <c r="AI5" t="s" s="448">
         <v>37</v>
       </c>
-      <c r="AK5" t="s" s="438">
+      <c r="AJ5" t="s" s="449">
         <v>38</v>
       </c>
-      <c r="AL5" t="s" s="439">
+      <c r="AK5" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="AM5" t="s" s="440">
-        <v>36</v>
-      </c>
-      <c r="AN5" t="s" s="441">
+      <c r="AL5" t="s" s="451">
+        <v>40</v>
+      </c>
+      <c r="AM5" t="s" s="452">
         <v>37</v>
       </c>
-      <c r="AO5" t="s" s="442">
+      <c r="AN5" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="AP5" t="s" s="443">
+      <c r="AO5" t="s" s="454">
         <v>39</v>
       </c>
-      <c r="AQ5" t="s" s="444">
-        <v>36</v>
-      </c>
-      <c r="AR5" t="s" s="445">
+      <c r="AP5" t="s" s="455">
+        <v>40</v>
+      </c>
+      <c r="AQ5" t="s" s="456">
         <v>37</v>
       </c>
-      <c r="AS5" t="s" s="446">
+      <c r="AR5" t="s" s="457">
         <v>38</v>
       </c>
-      <c r="AT5" t="s" s="447">
+      <c r="AS5" t="s" s="458">
         <v>39</v>
       </c>
-      <c r="AU5" t="s" s="448">
-        <v>36</v>
-      </c>
-      <c r="AV5" t="s" s="449">
+      <c r="AT5" t="s" s="459">
+        <v>40</v>
+      </c>
+      <c r="AU5" t="s" s="460">
         <v>37</v>
       </c>
-      <c r="AW5" t="s" s="450">
+      <c r="AV5" t="s" s="461">
         <v>38</v>
       </c>
-      <c r="AX5" t="s" s="451">
+      <c r="AW5" t="s" s="462">
         <v>39</v>
       </c>
-      <c r="AY5" t="s" s="452">
-        <v>36</v>
-      </c>
-      <c r="AZ5" t="s" s="453">
+      <c r="AX5" t="s" s="463">
+        <v>40</v>
+      </c>
+      <c r="AY5" t="s" s="464">
         <v>37</v>
       </c>
-      <c r="BA5" t="s" s="454">
+      <c r="AZ5" t="s" s="465">
         <v>38</v>
       </c>
-      <c r="BB5" t="s" s="455">
+      <c r="BA5" t="s" s="466">
         <v>39</v>
       </c>
-      <c r="BC5" t="s" s="456">
-        <v>36</v>
-      </c>
-      <c r="BD5" t="s" s="457">
+      <c r="BB5" t="s" s="467">
+        <v>40</v>
+      </c>
+      <c r="BC5" t="s" s="468">
         <v>37</v>
       </c>
-      <c r="BE5" t="s" s="458">
+      <c r="BD5" t="s" s="469">
         <v>38</v>
       </c>
-      <c r="BF5" t="s" s="459">
+      <c r="BE5" t="s" s="470">
         <v>39</v>
       </c>
-      <c r="BG5" t="s" s="460">
-        <v>36</v>
-      </c>
-      <c r="BH5" t="s" s="461">
+      <c r="BF5" t="s" s="471">
+        <v>40</v>
+      </c>
+      <c r="BG5" t="s" s="472">
         <v>37</v>
       </c>
-      <c r="BI5" t="s" s="462">
+      <c r="BH5" t="s" s="473">
         <v>38</v>
       </c>
-      <c r="BJ5" t="s" s="463">
+      <c r="BI5" t="s" s="474">
         <v>39</v>
       </c>
-      <c r="BK5" t="s" s="464">
-        <v>36</v>
-      </c>
-      <c r="BL5" t="s" s="465">
+      <c r="BJ5" t="s" s="475">
+        <v>40</v>
+      </c>
+      <c r="BK5" t="s" s="476">
         <v>37</v>
       </c>
-      <c r="BM5" t="s" s="466">
+      <c r="BL5" t="s" s="477">
         <v>38</v>
       </c>
-      <c r="BN5" t="s" s="467">
+      <c r="BM5" t="s" s="478">
         <v>39</v>
       </c>
-      <c r="BO5" t="s" s="468">
-        <v>36</v>
-      </c>
-      <c r="BP5" t="s" s="469">
+      <c r="BN5" t="s" s="479">
+        <v>40</v>
+      </c>
+      <c r="BO5" t="s" s="480">
         <v>37</v>
       </c>
-      <c r="BQ5" t="s" s="470">
+      <c r="BP5" t="s" s="481">
         <v>38</v>
       </c>
-      <c r="BR5" t="s" s="471">
+      <c r="BQ5" t="s" s="482">
         <v>39</v>
       </c>
-      <c r="BS5" t="s" s="472">
-        <v>36</v>
-      </c>
-      <c r="BT5" t="s" s="473">
+      <c r="BR5" t="s" s="483">
+        <v>40</v>
+      </c>
+      <c r="BS5" t="s" s="484">
         <v>37</v>
       </c>
-      <c r="BU5" t="s" s="474">
+      <c r="BT5" t="s" s="485">
         <v>38</v>
       </c>
-      <c r="BV5" t="s" s="475">
+      <c r="BU5" t="s" s="486">
         <v>39</v>
       </c>
-      <c r="BW5" t="s" s="476">
-        <v>36</v>
-      </c>
-      <c r="BX5" t="s" s="477">
+      <c r="BV5" t="s" s="487">
+        <v>40</v>
+      </c>
+      <c r="BW5" t="s" s="488">
         <v>37</v>
       </c>
-      <c r="BY5" t="s" s="478">
+      <c r="BX5" t="s" s="489">
         <v>38</v>
       </c>
-      <c r="BZ5" t="s" s="479">
+      <c r="BY5" t="s" s="490">
         <v>39</v>
       </c>
-      <c r="CA5" t="s" s="480">
-        <v>36</v>
-      </c>
-      <c r="CB5" t="s" s="481">
+      <c r="BZ5" t="s" s="491">
+        <v>40</v>
+      </c>
+      <c r="CA5" t="s" s="492">
         <v>37</v>
       </c>
-      <c r="CC5" t="s" s="482">
+      <c r="CB5" t="s" s="493">
         <v>38</v>
       </c>
-      <c r="CD5" t="s" s="483">
+      <c r="CC5" t="s" s="494">
         <v>39</v>
       </c>
-      <c r="CE5" t="s" s="484">
-        <v>36</v>
-      </c>
-      <c r="CF5" t="s" s="485">
+      <c r="CD5" t="s" s="495">
+        <v>40</v>
+      </c>
+      <c r="CE5" t="s" s="496">
         <v>37</v>
       </c>
-      <c r="CG5" t="s" s="486">
+      <c r="CF5" t="s" s="497">
         <v>38</v>
       </c>
-      <c r="CH5" t="s" s="487">
+      <c r="CG5" t="s" s="498">
         <v>39</v>
       </c>
-      <c r="CI5" t="s" s="488">
-        <v>36</v>
-      </c>
-      <c r="CJ5" t="s" s="489">
+      <c r="CH5" t="s" s="499">
+        <v>40</v>
+      </c>
+      <c r="CI5" t="s" s="500">
         <v>37</v>
       </c>
-      <c r="CK5" t="s" s="490">
+      <c r="CJ5" t="s" s="501">
         <v>38</v>
       </c>
-      <c r="CL5" t="s" s="491">
+      <c r="CK5" t="s" s="502">
         <v>39</v>
       </c>
-      <c r="CM5" t="s" s="492">
-        <v>36</v>
-      </c>
-      <c r="CN5" t="s" s="493">
+      <c r="CL5" t="s" s="503">
+        <v>40</v>
+      </c>
+      <c r="CM5" t="s" s="504">
         <v>37</v>
       </c>
-      <c r="CO5" t="s" s="494">
+      <c r="CN5" t="s" s="505">
         <v>38</v>
       </c>
-      <c r="CP5" t="s" s="495">
+      <c r="CO5" t="s" s="506">
         <v>39</v>
       </c>
-      <c r="CQ5" t="s" s="496">
-        <v>36</v>
-      </c>
-      <c r="CR5" t="s" s="497">
+      <c r="CP5" t="s" s="507">
+        <v>40</v>
+      </c>
+      <c r="CQ5" t="s" s="508">
         <v>37</v>
       </c>
-      <c r="CS5" t="s" s="498">
+      <c r="CR5" t="s" s="509">
         <v>38</v>
       </c>
-      <c r="CT5" t="s" s="499">
+      <c r="CS5" t="s" s="510">
         <v>39</v>
       </c>
-      <c r="CU5" t="s" s="500">
-        <v>36</v>
-      </c>
-      <c r="CV5" t="s" s="501">
+      <c r="CT5" t="s" s="511">
+        <v>40</v>
+      </c>
+      <c r="CU5" t="s" s="512">
         <v>37</v>
       </c>
-      <c r="CW5" t="s" s="502">
+      <c r="CV5" t="s" s="513">
         <v>38</v>
       </c>
-      <c r="CX5" t="s" s="503">
+      <c r="CW5" t="s" s="514">
         <v>39</v>
       </c>
-      <c r="CY5" t="s" s="504">
-        <v>36</v>
-      </c>
-      <c r="CZ5" t="s" s="505">
+      <c r="CX5" t="s" s="515">
+        <v>40</v>
+      </c>
+      <c r="CY5" t="s" s="516">
         <v>37</v>
       </c>
-      <c r="DA5" t="s" s="506">
+      <c r="CZ5" t="s" s="517">
         <v>38</v>
       </c>
-      <c r="DB5" t="s" s="507">
+      <c r="DA5" t="s" s="518">
         <v>39</v>
       </c>
-      <c r="DC5" t="s" s="508">
-        <v>36</v>
-      </c>
-      <c r="DD5" t="s" s="509">
+      <c r="DB5" t="s" s="519">
+        <v>40</v>
+      </c>
+      <c r="DC5" t="s" s="520">
         <v>37</v>
       </c>
-      <c r="DE5" t="s" s="510">
+      <c r="DD5" t="s" s="521">
         <v>38</v>
       </c>
-      <c r="DF5" t="s" s="511">
+      <c r="DE5" t="s" s="522">
         <v>39</v>
       </c>
-      <c r="DG5" t="s" s="512">
-        <v>36</v>
-      </c>
-      <c r="DH5" t="s" s="513">
+      <c r="DF5" t="s" s="523">
+        <v>40</v>
+      </c>
+      <c r="DG5" t="s" s="524">
         <v>37</v>
       </c>
-      <c r="DI5" t="s" s="514">
+      <c r="DH5" t="s" s="525">
         <v>38</v>
       </c>
-      <c r="DJ5" t="s" s="515">
+      <c r="DI5" t="s" s="526">
         <v>39</v>
       </c>
-      <c r="DK5" t="s" s="516">
-        <v>36</v>
-      </c>
-      <c r="DL5" t="s" s="517">
+      <c r="DJ5" t="s" s="527">
+        <v>40</v>
+      </c>
+      <c r="DK5" t="s" s="528">
         <v>37</v>
       </c>
-      <c r="DM5" t="s" s="518">
+      <c r="DL5" t="s" s="529">
         <v>38</v>
       </c>
-      <c r="DN5" t="s" s="519">
+      <c r="DM5" t="s" s="530">
         <v>39</v>
       </c>
-      <c r="DO5" t="s" s="520">
-        <v>36</v>
-      </c>
-      <c r="DP5" t="s" s="521">
+      <c r="DN5" t="s" s="531">
+        <v>40</v>
+      </c>
+      <c r="DO5" t="s" s="532">
         <v>37</v>
       </c>
-      <c r="DQ5" t="s" s="522">
+      <c r="DP5" t="s" s="533">
         <v>38</v>
       </c>
-      <c r="DR5" t="s" s="523">
+      <c r="DQ5" t="s" s="534">
         <v>39</v>
       </c>
-      <c r="DS5" t="s" s="524">
-        <v>36</v>
-      </c>
-      <c r="DT5" t="s" s="525">
+      <c r="DR5" t="s" s="535">
+        <v>40</v>
+      </c>
+      <c r="DS5" t="s" s="536">
         <v>37</v>
       </c>
-      <c r="DU5" t="s" s="526">
+      <c r="DT5" t="s" s="537">
         <v>38</v>
       </c>
-      <c r="DV5" t="s" s="527">
+      <c r="DU5" t="s" s="538">
         <v>39</v>
+      </c>
+      <c r="DV5" t="s" s="539">
+        <v>40</v>
+      </c>
+      <c r="DW5" t="s" s="540">
+        <v>37</v>
+      </c>
+      <c r="DX5" t="s" s="541">
+        <v>38</v>
+      </c>
+      <c r="DY5" t="s" s="542">
+        <v>39</v>
+      </c>
+      <c r="DZ5" t="s" s="543">
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="33.75" customHeight="true">
       <c r="A6" t="s" s="15">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n" s="11">
         <v>190.197</v>
@@ -3835,24 +3923,36 @@
         <v>509.068</v>
       </c>
       <c r="DS7" t="n" s="11">
-        <v>445.275</v>
+        <v>445.028</v>
       </c>
       <c r="DT7" t="n" s="11">
-        <v>463.183</v>
+        <v>463.312</v>
       </c>
       <c r="DU7" t="n" s="11">
-        <v>479.113</v>
+        <v>479.003</v>
       </c>
       <c r="DV7" t="n" s="11">
-        <v>532.842</v>
+        <v>534.035</v>
+      </c>
+      <c r="DW7" t="n" s="11">
+        <v>474.544</v>
+      </c>
+      <c r="DX7" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY7" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ7" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="14">
         <v>43</v>
-      </c>
-      <c r="B8" t="s" s="14">
-        <v>42</v>
       </c>
       <c r="C8" t="n" s="11">
         <v>33.698</v>
@@ -4215,24 +4315,36 @@
         <v>91.154</v>
       </c>
       <c r="DS8" t="n" s="11">
-        <v>83.256</v>
+        <v>83.213</v>
       </c>
       <c r="DT8" t="n" s="11">
-        <v>85.955</v>
+        <v>85.904</v>
       </c>
       <c r="DU8" t="n" s="11">
-        <v>85.52</v>
+        <v>85.477</v>
       </c>
       <c r="DV8" t="n" s="11">
-        <v>94.508</v>
+        <v>94.756</v>
+      </c>
+      <c r="DW8" t="n" s="11">
+        <v>86.12</v>
+      </c>
+      <c r="DX8" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY8" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ8" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n" s="11">
         <v>156.499</v>
@@ -4595,24 +4707,36 @@
         <v>417.914</v>
       </c>
       <c r="DS9" t="n" s="11">
-        <v>362.019</v>
+        <v>361.815</v>
       </c>
       <c r="DT9" t="n" s="11">
-        <v>377.228</v>
+        <v>377.408</v>
       </c>
       <c r="DU9" t="n" s="11">
-        <v>393.593</v>
+        <v>393.526</v>
       </c>
       <c r="DV9" t="n" s="11">
-        <v>438.334</v>
+        <v>439.279</v>
+      </c>
+      <c r="DW9" t="n" s="11">
+        <v>388.424</v>
+      </c>
+      <c r="DX9" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY9" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ9" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n" s="11">
         <v>42.587</v>
@@ -4975,24 +5099,36 @@
         <v>135.859</v>
       </c>
       <c r="DS10" t="n" s="11">
-        <v>116.939</v>
+        <v>116.767</v>
       </c>
       <c r="DT10" t="n" s="11">
-        <v>126.265</v>
+        <v>126.129</v>
       </c>
       <c r="DU10" t="n" s="11">
-        <v>121.457</v>
+        <v>121.289</v>
       </c>
       <c r="DV10" t="n" s="11">
-        <v>142.302</v>
+        <v>142.55</v>
+      </c>
+      <c r="DW10" t="n" s="11">
+        <v>126.734</v>
+      </c>
+      <c r="DX10" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY10" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ10" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n" s="11">
         <v>113.912</v>
@@ -5355,24 +5491,36 @@
         <v>282.055</v>
       </c>
       <c r="DS11" t="n" s="11">
-        <v>245.08</v>
+        <v>245.048</v>
       </c>
       <c r="DT11" t="n" s="11">
-        <v>250.963</v>
+        <v>251.279</v>
       </c>
       <c r="DU11" t="n" s="11">
-        <v>272.136</v>
+        <v>272.237</v>
       </c>
       <c r="DV11" t="n" s="11">
-        <v>296.032</v>
+        <v>296.729</v>
+      </c>
+      <c r="DW11" t="n" s="11">
+        <v>261.69</v>
+      </c>
+      <c r="DX11" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY11" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ11" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n" s="11">
         <v>63.002</v>
@@ -5735,24 +5883,36 @@
         <v>166.815</v>
       </c>
       <c r="DS12" t="n" s="11">
-        <v>172.229</v>
+        <v>171.933</v>
       </c>
       <c r="DT12" t="n" s="11">
-        <v>170.014</v>
+        <v>169.737</v>
       </c>
       <c r="DU12" t="n" s="11">
-        <v>166.138</v>
+        <v>165.847</v>
       </c>
       <c r="DV12" t="n" s="11">
-        <v>165.597</v>
+        <v>164.619</v>
+      </c>
+      <c r="DW12" t="n" s="11">
+        <v>167.726</v>
+      </c>
+      <c r="DX12" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY12" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ12" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n" s="11">
         <v>10.023</v>
@@ -6115,24 +6275,36 @@
         <v>35.533</v>
       </c>
       <c r="DS13" t="n" s="11">
-        <v>35.691</v>
+        <v>35.782</v>
       </c>
       <c r="DT13" t="n" s="11">
-        <v>35.614</v>
+        <v>35.72</v>
       </c>
       <c r="DU13" t="n" s="11">
-        <v>35.324</v>
+        <v>35.36</v>
       </c>
       <c r="DV13" t="n" s="11">
+        <v>36.116</v>
+      </c>
+      <c r="DW13" t="n" s="11">
         <v>35.828</v>
+      </c>
+      <c r="DX13" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY13" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ13" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n" s="11">
         <v>166.891</v>
@@ -6495,24 +6667,36 @@
         <v>413.337</v>
       </c>
       <c r="DS14" t="n" s="11">
-        <v>381.618</v>
+        <v>381.199</v>
       </c>
       <c r="DT14" t="n" s="11">
-        <v>385.363</v>
+        <v>385.296</v>
       </c>
       <c r="DU14" t="n" s="11">
-        <v>402.95</v>
+        <v>402.724</v>
       </c>
       <c r="DV14" t="n" s="11">
-        <v>425.801</v>
+        <v>425.232</v>
+      </c>
+      <c r="DW14" t="n" s="11">
+        <v>393.588</v>
+      </c>
+      <c r="DX14" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY14" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ14" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n" s="11">
         <v>89.383</v>
@@ -6875,24 +7059,36 @@
         <v>110.085</v>
       </c>
       <c r="DS15" t="n" s="11">
-        <v>148.807</v>
+        <v>147.982</v>
       </c>
       <c r="DT15" t="n" s="11">
-        <v>130.319</v>
+        <v>130.244</v>
       </c>
       <c r="DU15" t="n" s="11">
-        <v>130.406</v>
+        <v>131.694</v>
       </c>
       <c r="DV15" t="n" s="11">
-        <v>119.219</v>
+        <v>123.886</v>
+      </c>
+      <c r="DW15" t="n" s="11">
+        <v>160.201</v>
+      </c>
+      <c r="DX15" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY15" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ15" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n" s="11">
         <v>-9.337</v>
@@ -7255,24 +7451,36 @@
         <v>-24.645</v>
       </c>
       <c r="DS16" t="n" s="11">
-        <v>-27.741</v>
+        <v>-27.507</v>
       </c>
       <c r="DT16" t="n" s="11">
-        <v>-20.776</v>
+        <v>-20.556</v>
       </c>
       <c r="DU16" t="n" s="11">
-        <v>-29.142</v>
+        <v>-28.926</v>
       </c>
       <c r="DV16" t="n" s="11">
-        <v>-33.56</v>
+        <v>-33.608</v>
+      </c>
+      <c r="DW16" t="n" s="11">
+        <v>-32.027</v>
+      </c>
+      <c r="DX16" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY16" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ16" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="n" s="11">
         <v>246.937</v>
@@ -7635,24 +7843,36 @@
         <v>498.777</v>
       </c>
       <c r="DS17" t="n" s="11">
-        <v>502.684</v>
+        <v>501.674</v>
       </c>
       <c r="DT17" t="n" s="11">
-        <v>494.906</v>
+        <v>494.984</v>
       </c>
       <c r="DU17" t="n" s="11">
-        <v>504.214</v>
+        <v>505.492</v>
       </c>
       <c r="DV17" t="n" s="11">
-        <v>511.46</v>
+        <v>515.51</v>
+      </c>
+      <c r="DW17" t="n" s="11">
+        <v>521.762</v>
+      </c>
+      <c r="DX17" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY17" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ17" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="n" s="11">
         <v>283.55</v>
@@ -8015,24 +8235,36 @@
         <v>624.845</v>
       </c>
       <c r="DS18" t="n" s="11">
-        <v>623.733</v>
+        <v>622.603</v>
       </c>
       <c r="DT18" t="n" s="11">
-        <v>622.207</v>
+        <v>622.328</v>
       </c>
       <c r="DU18" t="n" s="11">
-        <v>633.886</v>
+        <v>635.223</v>
       </c>
       <c r="DV18" t="n" s="11">
-        <v>649.722</v>
+        <v>652.246</v>
+      </c>
+      <c r="DW18" t="n" s="11">
+        <v>652.776</v>
+      </c>
+      <c r="DX18" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY18" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ18" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="n" s="11">
         <v>3.624</v>
@@ -8404,15 +8636,27 @@
         <v>14.945</v>
       </c>
       <c r="DV19" t="n" s="11">
-        <v>16.317</v>
+        <v>16.3</v>
+      </c>
+      <c r="DW19" t="n" s="11">
+        <v>14.802</v>
+      </c>
+      <c r="DX19" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY19" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ19" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n" s="11">
         <v>40.917</v>
@@ -8775,24 +9019,36 @@
         <v>78.935</v>
       </c>
       <c r="DS20" t="n" s="11">
-        <v>113.854</v>
+        <v>113.717</v>
       </c>
       <c r="DT20" t="n" s="11">
-        <v>82.872</v>
+        <v>83.03</v>
       </c>
       <c r="DU20" t="n" s="11">
-        <v>53.963</v>
+        <v>54.203</v>
       </c>
       <c r="DV20" t="n" s="11">
-        <v>60.37</v>
+        <v>60.834</v>
+      </c>
+      <c r="DW20" t="n" s="11">
+        <v>78.233</v>
+      </c>
+      <c r="DX20" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY20" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ20" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="n" s="11">
         <v>250.561</v>
@@ -9155,24 +9411,36 @@
         <v>514.864</v>
       </c>
       <c r="DS21" t="n" s="11">
-        <v>517.33</v>
+        <v>516.32</v>
       </c>
       <c r="DT21" t="n" s="11">
-        <v>509.779</v>
+        <v>509.857</v>
       </c>
       <c r="DU21" t="n" s="11">
-        <v>519.159</v>
+        <v>520.437</v>
       </c>
       <c r="DV21" t="n" s="11">
-        <v>527.777</v>
+        <v>531.81</v>
+      </c>
+      <c r="DW21" t="n" s="11">
+        <v>536.564</v>
+      </c>
+      <c r="DX21" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY21" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ21" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="10">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" t="n" s="11">
         <v>16.3</v>
@@ -9545,196 +9813,208 @@
       </c>
       <c r="DV22" t="n" s="11">
         <v>11.4</v>
+      </c>
+      <c r="DW22" t="n" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="DX22" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY22" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ22" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="23" ht="33.75" customHeight="true">
       <c r="A23" t="s" s="15">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="n" s="11">
-        <v>205.893</v>
+        <v>205.899</v>
       </c>
       <c r="D24" t="n" s="11">
-        <v>214.81</v>
+        <v>214.804</v>
       </c>
       <c r="E24" t="n" s="11">
-        <v>215.949</v>
+        <v>215.941</v>
       </c>
       <c r="F24" t="n" s="11">
-        <v>219.158</v>
+        <v>219.165</v>
       </c>
       <c r="G24" t="n" s="11">
-        <v>225.53</v>
+        <v>225.537</v>
       </c>
       <c r="H24" t="n" s="11">
-        <v>229.877</v>
+        <v>229.876</v>
       </c>
       <c r="I24" t="n" s="11">
-        <v>236.961</v>
+        <v>236.948</v>
       </c>
       <c r="J24" t="n" s="11">
-        <v>235.367</v>
+        <v>235.375</v>
       </c>
       <c r="K24" t="n" s="11">
-        <v>233.799</v>
+        <v>233.806</v>
       </c>
       <c r="L24" t="n" s="11">
-        <v>237.023</v>
+        <v>237.027</v>
       </c>
       <c r="M24" t="n" s="11">
-        <v>238.462</v>
+        <v>238.443</v>
       </c>
       <c r="N24" t="n" s="11">
-        <v>240.073</v>
+        <v>240.082</v>
       </c>
       <c r="O24" t="n" s="11">
-        <v>242.509</v>
+        <v>242.516</v>
       </c>
       <c r="P24" t="n" s="11">
-        <v>241.521</v>
+        <v>241.526</v>
       </c>
       <c r="Q24" t="n" s="11">
-        <v>243.669</v>
+        <v>243.648</v>
       </c>
       <c r="R24" t="n" s="11">
-        <v>246.896</v>
+        <v>246.904</v>
       </c>
       <c r="S24" t="n" s="11">
-        <v>248.938</v>
+        <v>248.944</v>
       </c>
       <c r="T24" t="n" s="11">
-        <v>251.561</v>
+        <v>251.569</v>
       </c>
       <c r="U24" t="n" s="11">
-        <v>253.566</v>
+        <v>253.545</v>
       </c>
       <c r="V24" t="n" s="11">
-        <v>255.365</v>
+        <v>255.371</v>
       </c>
       <c r="W24" t="n" s="11">
-        <v>254.04</v>
+        <v>254.043</v>
       </c>
       <c r="X24" t="n" s="11">
-        <v>253.367</v>
+        <v>253.376</v>
       </c>
       <c r="Y24" t="n" s="11">
+        <v>255.303</v>
+      </c>
+      <c r="Z24" t="n" s="11">
+        <v>255.879</v>
+      </c>
+      <c r="AA24" t="n" s="11">
         <v>255.318</v>
       </c>
-      <c r="Z24" t="n" s="11">
-        <v>255.877</v>
-      </c>
-      <c r="AA24" t="n" s="11">
-        <v>255.317</v>
-      </c>
       <c r="AB24" t="n" s="11">
-        <v>254.936</v>
+        <v>254.946</v>
       </c>
       <c r="AC24" t="n" s="11">
-        <v>255.157</v>
+        <v>255.149</v>
       </c>
       <c r="AD24" t="n" s="11">
-        <v>257.016</v>
+        <v>257.015</v>
       </c>
       <c r="AE24" t="n" s="11">
-        <v>257.712</v>
+        <v>257.71</v>
       </c>
       <c r="AF24" t="n" s="11">
-        <v>260.233</v>
+        <v>260.239</v>
       </c>
       <c r="AG24" t="n" s="11">
-        <v>262.042</v>
+        <v>262.041</v>
       </c>
       <c r="AH24" t="n" s="11">
-        <v>264.366</v>
+        <v>264.362</v>
       </c>
       <c r="AI24" t="n" s="11">
-        <v>264.349</v>
+        <v>264.348</v>
       </c>
       <c r="AJ24" t="n" s="11">
-        <v>268.271</v>
+        <v>268.279</v>
       </c>
       <c r="AK24" t="n" s="11">
-        <v>269.833</v>
+        <v>269.832</v>
       </c>
       <c r="AL24" t="n" s="11">
-        <v>271.916</v>
+        <v>271.911</v>
       </c>
       <c r="AM24" t="n" s="11">
         <v>276.115</v>
       </c>
       <c r="AN24" t="n" s="11">
-        <v>278.342</v>
+        <v>278.347</v>
       </c>
       <c r="AO24" t="n" s="11">
-        <v>280.67</v>
+        <v>280.669</v>
       </c>
       <c r="AP24" t="n" s="11">
-        <v>282.285</v>
+        <v>282.28</v>
       </c>
       <c r="AQ24" t="n" s="11">
         <v>282.591</v>
       </c>
       <c r="AR24" t="n" s="11">
-        <v>283.108</v>
+        <v>283.111</v>
       </c>
       <c r="AS24" t="n" s="11">
-        <v>283.359</v>
+        <v>283.357</v>
       </c>
       <c r="AT24" t="n" s="11">
-        <v>285.991</v>
+        <v>285.989</v>
       </c>
       <c r="AU24" t="n" s="11">
         <v>284.589</v>
       </c>
       <c r="AV24" t="n" s="11">
-        <v>284.421</v>
+        <v>284.422</v>
       </c>
       <c r="AW24" t="n" s="11">
-        <v>286.303</v>
+        <v>286.302</v>
       </c>
       <c r="AX24" t="n" s="11">
-        <v>286.891</v>
+        <v>286.89</v>
       </c>
       <c r="AY24" t="n" s="11">
-        <v>286.005</v>
+        <v>286.006</v>
       </c>
       <c r="AZ24" t="n" s="11">
         <v>285.213</v>
       </c>
       <c r="BA24" t="n" s="11">
-        <v>287.555</v>
+        <v>287.554</v>
       </c>
       <c r="BB24" t="n" s="11">
-        <v>287.148</v>
+        <v>287.147</v>
       </c>
       <c r="BC24" t="n" s="11">
-        <v>287.898</v>
+        <v>287.897</v>
       </c>
       <c r="BD24" t="n" s="11">
-        <v>287.405</v>
+        <v>287.406</v>
       </c>
       <c r="BE24" t="n" s="11">
-        <v>287.432</v>
+        <v>287.431</v>
       </c>
       <c r="BF24" t="n" s="11">
         <v>287.275</v>
       </c>
       <c r="BG24" t="n" s="11">
-        <v>287.369</v>
+        <v>287.368</v>
       </c>
       <c r="BH24" t="n" s="11">
         <v>286.829</v>
       </c>
       <c r="BI24" t="n" s="11">
-        <v>286.956</v>
+        <v>286.957</v>
       </c>
       <c r="BJ24" t="n" s="11">
         <v>287.804</v>
@@ -9743,10 +10023,10 @@
         <v>289.021</v>
       </c>
       <c r="BL24" t="n" s="11">
-        <v>290.998</v>
+        <v>290.999</v>
       </c>
       <c r="BM24" t="n" s="11">
-        <v>294.639</v>
+        <v>294.638</v>
       </c>
       <c r="BN24" t="n" s="11">
         <v>295.217</v>
@@ -9764,357 +10044,369 @@
         <v>304.574</v>
       </c>
       <c r="BS24" t="n" s="11">
-        <v>308.962</v>
+        <v>308.964</v>
       </c>
       <c r="BT24" t="n" s="11">
-        <v>311.772</v>
+        <v>311.776</v>
       </c>
       <c r="BU24" t="n" s="11">
-        <v>313.956</v>
+        <v>313.949</v>
       </c>
       <c r="BV24" t="n" s="11">
-        <v>316.529</v>
+        <v>316.53</v>
       </c>
       <c r="BW24" t="n" s="11">
-        <v>313.951</v>
+        <v>313.954</v>
       </c>
       <c r="BX24" t="n" s="11">
-        <v>312.907</v>
+        <v>312.914</v>
       </c>
       <c r="BY24" t="n" s="11">
-        <v>314.982</v>
+        <v>314.968</v>
       </c>
       <c r="BZ24" t="n" s="11">
-        <v>316.19</v>
+        <v>316.192</v>
       </c>
       <c r="CA24" t="n" s="11">
-        <v>319.296</v>
+        <v>319.304</v>
       </c>
       <c r="CB24" t="n" s="11">
-        <v>321.991</v>
+        <v>322.001</v>
       </c>
       <c r="CC24" t="n" s="11">
-        <v>325.473</v>
+        <v>325.452</v>
       </c>
       <c r="CD24" t="n" s="11">
-        <v>328.649</v>
+        <v>328.652</v>
       </c>
       <c r="CE24" t="n" s="11">
-        <v>333.53</v>
+        <v>333.541</v>
       </c>
       <c r="CF24" t="n" s="11">
-        <v>337.317</v>
+        <v>337.329</v>
       </c>
       <c r="CG24" t="n" s="11">
-        <v>339.379</v>
+        <v>339.359</v>
       </c>
       <c r="CH24" t="n" s="11">
-        <v>341.968</v>
+        <v>341.965</v>
       </c>
       <c r="CI24" t="n" s="11">
-        <v>346.351</v>
+        <v>346.37</v>
       </c>
       <c r="CJ24" t="n" s="11">
-        <v>350.956</v>
+        <v>350.97</v>
       </c>
       <c r="CK24" t="n" s="11">
-        <v>352.989</v>
+        <v>352.97</v>
       </c>
       <c r="CL24" t="n" s="11">
-        <v>355.594</v>
+        <v>355.58</v>
       </c>
       <c r="CM24" t="n" s="11">
-        <v>356.766</v>
+        <v>356.792</v>
       </c>
       <c r="CN24" t="n" s="11">
-        <v>360.117</v>
+        <v>360.136</v>
       </c>
       <c r="CO24" t="n" s="11">
-        <v>363.43</v>
+        <v>363.427</v>
       </c>
       <c r="CP24" t="n" s="11">
-        <v>366.299</v>
+        <v>366.257</v>
       </c>
       <c r="CQ24" t="n" s="11">
-        <v>371.461</v>
+        <v>371.499</v>
       </c>
       <c r="CR24" t="n" s="11">
-        <v>374.317</v>
+        <v>374.336</v>
       </c>
       <c r="CS24" t="n" s="11">
-        <v>377.494</v>
+        <v>377.515</v>
       </c>
       <c r="CT24" t="n" s="11">
-        <v>380.678</v>
+        <v>380.598</v>
       </c>
       <c r="CU24" t="n" s="11">
-        <v>384.289</v>
+        <v>384.343</v>
       </c>
       <c r="CV24" t="n" s="11">
-        <v>390.016</v>
+        <v>390.036</v>
       </c>
       <c r="CW24" t="n" s="11">
-        <v>393.167</v>
+        <v>393.217</v>
       </c>
       <c r="CX24" t="n" s="11">
-        <v>397.34</v>
+        <v>397.216</v>
       </c>
       <c r="CY24" t="n" s="11">
-        <v>400.544</v>
+        <v>400.625</v>
       </c>
       <c r="CZ24" t="n" s="11">
-        <v>403.656</v>
+        <v>403.674</v>
       </c>
       <c r="DA24" t="n" s="11">
-        <v>407.794</v>
+        <v>407.864</v>
       </c>
       <c r="DB24" t="n" s="11">
-        <v>413.054</v>
+        <v>412.882</v>
       </c>
       <c r="DC24" t="n" s="11">
-        <v>417.28</v>
+        <v>417.397</v>
       </c>
       <c r="DD24" t="n" s="11">
-        <v>421.741</v>
+        <v>421.756</v>
       </c>
       <c r="DE24" t="n" s="11">
-        <v>425.718</v>
+        <v>425.809</v>
       </c>
       <c r="DF24" t="n" s="11">
-        <v>431.577</v>
+        <v>431.354</v>
       </c>
       <c r="DG24" t="n" s="11">
-        <v>435.876</v>
+        <v>436.029</v>
       </c>
       <c r="DH24" t="n" s="11">
-        <v>440.763</v>
+        <v>440.76</v>
       </c>
       <c r="DI24" t="n" s="11">
-        <v>446.54</v>
+        <v>446.676</v>
       </c>
       <c r="DJ24" t="n" s="11">
-        <v>450.478</v>
+        <v>450.19</v>
       </c>
       <c r="DK24" t="n" s="11">
-        <v>456.997</v>
+        <v>457.188</v>
       </c>
       <c r="DL24" t="n" s="11">
-        <v>462.434</v>
+        <v>462.404</v>
       </c>
       <c r="DM24" t="n" s="11">
-        <v>468.052</v>
+        <v>468.25</v>
       </c>
       <c r="DN24" t="n" s="11">
-        <v>468.044</v>
+        <v>467.684</v>
       </c>
       <c r="DO24" t="n" s="11">
-        <v>469.829</v>
+        <v>470.035</v>
       </c>
       <c r="DP24" t="n" s="11">
-        <v>448.023</v>
+        <v>447.954</v>
       </c>
       <c r="DQ24" t="n" s="11">
-        <v>464.281</v>
+        <v>464.547</v>
       </c>
       <c r="DR24" t="n" s="11">
-        <v>469.972</v>
+        <v>469.569</v>
       </c>
       <c r="DS24" t="n" s="11">
-        <v>467.963</v>
+        <v>467.931</v>
       </c>
       <c r="DT24" t="n" s="11">
-        <v>472.662</v>
+        <v>472.71</v>
       </c>
       <c r="DU24" t="n" s="11">
-        <v>487.234</v>
+        <v>487.522</v>
       </c>
       <c r="DV24" t="n" s="11">
-        <v>492.554</v>
+        <v>493.212</v>
+      </c>
+      <c r="DW24" t="n" s="11">
+        <v>498.653</v>
+      </c>
+      <c r="DX24" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY24" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ24" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s" s="14">
         <v>43</v>
       </c>
-      <c r="B25" t="s" s="14">
-        <v>42</v>
-      </c>
       <c r="C25" t="n" s="11">
-        <v>35.794</v>
+        <v>35.8</v>
       </c>
       <c r="D25" t="n" s="11">
-        <v>39.165</v>
+        <v>39.159</v>
       </c>
       <c r="E25" t="n" s="11">
-        <v>38.901</v>
+        <v>38.893</v>
       </c>
       <c r="F25" t="n" s="11">
-        <v>38.629</v>
+        <v>38.636</v>
       </c>
       <c r="G25" t="n" s="11">
-        <v>39.758</v>
+        <v>39.765</v>
       </c>
       <c r="H25" t="n" s="11">
-        <v>41.069</v>
+        <v>41.068</v>
       </c>
       <c r="I25" t="n" s="11">
-        <v>42.427</v>
+        <v>42.414</v>
       </c>
       <c r="J25" t="n" s="11">
-        <v>42.292</v>
+        <v>42.3</v>
       </c>
       <c r="K25" t="n" s="11">
-        <v>40.553</v>
+        <v>40.56</v>
       </c>
       <c r="L25" t="n" s="11">
-        <v>42.16</v>
+        <v>42.164</v>
       </c>
       <c r="M25" t="n" s="11">
-        <v>42.076</v>
+        <v>42.057</v>
       </c>
       <c r="N25" t="n" s="11">
-        <v>42.92</v>
+        <v>42.929</v>
       </c>
       <c r="O25" t="n" s="11">
-        <v>44.045</v>
+        <v>44.052</v>
       </c>
       <c r="P25" t="n" s="11">
-        <v>44.901</v>
+        <v>44.906</v>
       </c>
       <c r="Q25" t="n" s="11">
-        <v>44.968</v>
+        <v>44.947</v>
       </c>
       <c r="R25" t="n" s="11">
-        <v>45.809</v>
+        <v>45.817</v>
       </c>
       <c r="S25" t="n" s="11">
-        <v>46.022</v>
+        <v>46.028</v>
       </c>
       <c r="T25" t="n" s="11">
-        <v>47.369</v>
+        <v>47.377</v>
       </c>
       <c r="U25" t="n" s="11">
-        <v>47.987</v>
+        <v>47.966</v>
       </c>
       <c r="V25" t="n" s="11">
-        <v>48.468</v>
+        <v>48.474</v>
       </c>
       <c r="W25" t="n" s="11">
-        <v>46.709</v>
+        <v>46.712</v>
       </c>
       <c r="X25" t="n" s="11">
-        <v>47.283</v>
+        <v>47.292</v>
       </c>
       <c r="Y25" t="n" s="11">
-        <v>47.912</v>
+        <v>47.897</v>
       </c>
       <c r="Z25" t="n" s="11">
-        <v>48.733</v>
+        <v>48.735</v>
       </c>
       <c r="AA25" t="n" s="11">
-        <v>48.654</v>
+        <v>48.655</v>
       </c>
       <c r="AB25" t="n" s="11">
-        <v>49.059</v>
+        <v>49.069</v>
       </c>
       <c r="AC25" t="n" s="11">
-        <v>48.921</v>
+        <v>48.913</v>
       </c>
       <c r="AD25" t="n" s="11">
-        <v>49.654</v>
+        <v>49.653</v>
       </c>
       <c r="AE25" t="n" s="11">
-        <v>49.3</v>
+        <v>49.298</v>
       </c>
       <c r="AF25" t="n" s="11">
-        <v>50.093</v>
+        <v>50.099</v>
       </c>
       <c r="AG25" t="n" s="11">
-        <v>50.333</v>
+        <v>50.332</v>
       </c>
       <c r="AH25" t="n" s="11">
-        <v>51.38</v>
+        <v>51.376</v>
       </c>
       <c r="AI25" t="n" s="11">
-        <v>50.427</v>
+        <v>50.426</v>
       </c>
       <c r="AJ25" t="n" s="11">
-        <v>51.182</v>
+        <v>51.19</v>
       </c>
       <c r="AK25" t="n" s="11">
-        <v>51.633</v>
+        <v>51.632</v>
       </c>
       <c r="AL25" t="n" s="11">
-        <v>52.435</v>
+        <v>52.43</v>
       </c>
       <c r="AM25" t="n" s="11">
         <v>53.632</v>
       </c>
       <c r="AN25" t="n" s="11">
-        <v>54.029</v>
+        <v>54.034</v>
       </c>
       <c r="AO25" t="n" s="11">
-        <v>54.672</v>
+        <v>54.671</v>
       </c>
       <c r="AP25" t="n" s="11">
-        <v>55.023</v>
+        <v>55.018</v>
       </c>
       <c r="AQ25" t="n" s="11">
         <v>53.757</v>
       </c>
       <c r="AR25" t="n" s="11">
-        <v>53.985</v>
+        <v>53.988</v>
       </c>
       <c r="AS25" t="n" s="11">
-        <v>54.44</v>
+        <v>54.438</v>
       </c>
       <c r="AT25" t="n" s="11">
-        <v>55.085</v>
+        <v>55.083</v>
       </c>
       <c r="AU25" t="n" s="11">
         <v>53.677</v>
       </c>
       <c r="AV25" t="n" s="11">
-        <v>53.61</v>
+        <v>53.611</v>
       </c>
       <c r="AW25" t="n" s="11">
-        <v>54.708</v>
+        <v>54.707</v>
       </c>
       <c r="AX25" t="n" s="11">
-        <v>54.559</v>
+        <v>54.558</v>
       </c>
       <c r="AY25" t="n" s="11">
-        <v>55.014</v>
+        <v>55.015</v>
       </c>
       <c r="AZ25" t="n" s="11">
         <v>54.716</v>
       </c>
       <c r="BA25" t="n" s="11">
-        <v>55.811</v>
+        <v>55.81</v>
       </c>
       <c r="BB25" t="n" s="11">
-        <v>55.316</v>
+        <v>55.315</v>
       </c>
       <c r="BC25" t="n" s="11">
-        <v>54.771</v>
+        <v>54.77</v>
       </c>
       <c r="BD25" t="n" s="11">
-        <v>54.494</v>
+        <v>54.495</v>
       </c>
       <c r="BE25" t="n" s="11">
-        <v>55.001</v>
+        <v>55.0</v>
       </c>
       <c r="BF25" t="n" s="11">
         <v>54.625</v>
       </c>
       <c r="BG25" t="n" s="11">
-        <v>54.547</v>
+        <v>54.546</v>
       </c>
       <c r="BH25" t="n" s="11">
         <v>54.81</v>
       </c>
       <c r="BI25" t="n" s="11">
-        <v>54.42</v>
+        <v>54.421</v>
       </c>
       <c r="BJ25" t="n" s="11">
         <v>54.198</v>
@@ -10123,10 +10415,10 @@
         <v>55.665</v>
       </c>
       <c r="BL25" t="n" s="11">
-        <v>55.547</v>
+        <v>55.548</v>
       </c>
       <c r="BM25" t="n" s="11">
-        <v>56.616</v>
+        <v>56.615</v>
       </c>
       <c r="BN25" t="n" s="11">
         <v>56.014</v>
@@ -10144,180 +10436,192 @@
         <v>56.443</v>
       </c>
       <c r="BS25" t="n" s="11">
-        <v>57.007</v>
+        <v>57.009</v>
       </c>
       <c r="BT25" t="n" s="11">
-        <v>57.962</v>
+        <v>57.966</v>
       </c>
       <c r="BU25" t="n" s="11">
-        <v>58.451</v>
+        <v>58.444</v>
       </c>
       <c r="BV25" t="n" s="11">
-        <v>58.779</v>
+        <v>58.78</v>
       </c>
       <c r="BW25" t="n" s="11">
-        <v>59.263</v>
+        <v>59.266</v>
       </c>
       <c r="BX25" t="n" s="11">
-        <v>59.753</v>
+        <v>59.76</v>
       </c>
       <c r="BY25" t="n" s="11">
-        <v>58.976</v>
+        <v>58.962</v>
       </c>
       <c r="BZ25" t="n" s="11">
-        <v>58.587</v>
+        <v>58.589</v>
       </c>
       <c r="CA25" t="n" s="11">
-        <v>60.044</v>
+        <v>60.052</v>
       </c>
       <c r="CB25" t="n" s="11">
-        <v>60.775</v>
+        <v>60.785</v>
       </c>
       <c r="CC25" t="n" s="11">
-        <v>61.007</v>
+        <v>60.986</v>
       </c>
       <c r="CD25" t="n" s="11">
-        <v>61.249</v>
+        <v>61.252</v>
       </c>
       <c r="CE25" t="n" s="11">
-        <v>61.546</v>
+        <v>61.557</v>
       </c>
       <c r="CF25" t="n" s="11">
-        <v>62.223</v>
+        <v>62.235</v>
       </c>
       <c r="CG25" t="n" s="11">
-        <v>62.456</v>
+        <v>62.436</v>
       </c>
       <c r="CH25" t="n" s="11">
-        <v>62.424</v>
+        <v>62.421</v>
       </c>
       <c r="CI25" t="n" s="11">
-        <v>63.213</v>
+        <v>63.232</v>
       </c>
       <c r="CJ25" t="n" s="11">
-        <v>64.073</v>
+        <v>64.087</v>
       </c>
       <c r="CK25" t="n" s="11">
-        <v>64.31</v>
+        <v>64.291</v>
       </c>
       <c r="CL25" t="n" s="11">
-        <v>64.337</v>
+        <v>64.323</v>
       </c>
       <c r="CM25" t="n" s="11">
-        <v>64.324</v>
+        <v>64.35</v>
       </c>
       <c r="CN25" t="n" s="11">
-        <v>65.006</v>
+        <v>65.025</v>
       </c>
       <c r="CO25" t="n" s="11">
-        <v>65.286</v>
+        <v>65.283</v>
       </c>
       <c r="CP25" t="n" s="11">
-        <v>65.653</v>
+        <v>65.611</v>
       </c>
       <c r="CQ25" t="n" s="11">
-        <v>66.777</v>
+        <v>66.815</v>
       </c>
       <c r="CR25" t="n" s="11">
-        <v>67.19</v>
+        <v>67.209</v>
       </c>
       <c r="CS25" t="n" s="11">
-        <v>67.647</v>
+        <v>67.668</v>
       </c>
       <c r="CT25" t="n" s="11">
-        <v>68.167</v>
+        <v>68.087</v>
       </c>
       <c r="CU25" t="n" s="11">
-        <v>68.919</v>
+        <v>68.973</v>
       </c>
       <c r="CV25" t="n" s="11">
-        <v>69.522</v>
+        <v>69.542</v>
       </c>
       <c r="CW25" t="n" s="11">
-        <v>70.092</v>
+        <v>70.142</v>
       </c>
       <c r="CX25" t="n" s="11">
-        <v>70.822</v>
+        <v>70.698</v>
       </c>
       <c r="CY25" t="n" s="11">
-        <v>70.863</v>
+        <v>70.944</v>
       </c>
       <c r="CZ25" t="n" s="11">
-        <v>71.338</v>
+        <v>71.356</v>
       </c>
       <c r="DA25" t="n" s="11">
-        <v>72.288</v>
+        <v>72.358</v>
       </c>
       <c r="DB25" t="n" s="11">
-        <v>73.171</v>
+        <v>72.999</v>
       </c>
       <c r="DC25" t="n" s="11">
-        <v>73.679</v>
+        <v>73.796</v>
       </c>
       <c r="DD25" t="n" s="11">
-        <v>74.803</v>
+        <v>74.818</v>
       </c>
       <c r="DE25" t="n" s="11">
-        <v>75.364</v>
+        <v>75.455</v>
       </c>
       <c r="DF25" t="n" s="11">
-        <v>77.044</v>
+        <v>76.821</v>
       </c>
       <c r="DG25" t="n" s="11">
-        <v>75.944</v>
+        <v>76.097</v>
       </c>
       <c r="DH25" t="n" s="11">
-        <v>76.747</v>
+        <v>76.744</v>
       </c>
       <c r="DI25" t="n" s="11">
-        <v>78.248</v>
+        <v>78.384</v>
       </c>
       <c r="DJ25" t="n" s="11">
-        <v>80.072</v>
+        <v>79.784</v>
       </c>
       <c r="DK25" t="n" s="11">
-        <v>81.024</v>
+        <v>81.215</v>
       </c>
       <c r="DL25" t="n" s="11">
-        <v>81.767</v>
+        <v>81.737</v>
       </c>
       <c r="DM25" t="n" s="11">
-        <v>83.276</v>
+        <v>83.474</v>
       </c>
       <c r="DN25" t="n" s="11">
-        <v>85.398</v>
+        <v>85.038</v>
       </c>
       <c r="DO25" t="n" s="11">
-        <v>82.744</v>
+        <v>82.95</v>
       </c>
       <c r="DP25" t="n" s="11">
-        <v>83.609</v>
+        <v>83.54</v>
       </c>
       <c r="DQ25" t="n" s="11">
-        <v>84.363</v>
+        <v>84.629</v>
       </c>
       <c r="DR25" t="n" s="11">
-        <v>87.332</v>
+        <v>86.929</v>
       </c>
       <c r="DS25" t="n" s="11">
-        <v>84.756</v>
+        <v>84.917</v>
       </c>
       <c r="DT25" t="n" s="11">
-        <v>85.696</v>
+        <v>85.538</v>
       </c>
       <c r="DU25" t="n" s="11">
-        <v>87.374</v>
+        <v>87.708</v>
       </c>
       <c r="DV25" t="n" s="11">
-        <v>91.414</v>
+        <v>91.184</v>
+      </c>
+      <c r="DW25" t="n" s="11">
+        <v>87.211</v>
+      </c>
+      <c r="DX25" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY25" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ25" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="n" s="11">
         <v>170.099</v>
@@ -10680,24 +10984,36 @@
         <v>382.64</v>
       </c>
       <c r="DS26" t="n" s="11">
-        <v>383.207</v>
+        <v>383.014</v>
       </c>
       <c r="DT26" t="n" s="11">
-        <v>386.966</v>
+        <v>387.172</v>
       </c>
       <c r="DU26" t="n" s="11">
-        <v>399.86</v>
+        <v>399.814</v>
       </c>
       <c r="DV26" t="n" s="11">
-        <v>401.14</v>
+        <v>402.028</v>
+      </c>
+      <c r="DW26" t="n" s="11">
+        <v>411.442</v>
+      </c>
+      <c r="DX26" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY26" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ26" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="n" s="11">
         <v>48.369</v>
@@ -11060,24 +11376,36 @@
         <v>122.341</v>
       </c>
       <c r="DS27" t="n" s="11">
-        <v>124.839</v>
+        <v>124.67</v>
       </c>
       <c r="DT27" t="n" s="11">
-        <v>125.046</v>
+        <v>124.912</v>
       </c>
       <c r="DU27" t="n" s="11">
-        <v>129.232</v>
+        <v>129.075</v>
       </c>
       <c r="DV27" t="n" s="11">
-        <v>127.845</v>
+        <v>128.078</v>
+      </c>
+      <c r="DW27" t="n" s="11">
+        <v>135.607</v>
+      </c>
+      <c r="DX27" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY27" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ27" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="n" s="11">
         <v>121.73</v>
@@ -11440,24 +11768,36 @@
         <v>260.299</v>
       </c>
       <c r="DS28" t="n" s="11">
-        <v>258.368</v>
+        <v>258.344</v>
       </c>
       <c r="DT28" t="n" s="11">
-        <v>261.92</v>
+        <v>262.26</v>
       </c>
       <c r="DU28" t="n" s="11">
-        <v>270.628</v>
+        <v>270.739</v>
       </c>
       <c r="DV28" t="n" s="11">
-        <v>273.295</v>
+        <v>273.95</v>
+      </c>
+      <c r="DW28" t="n" s="11">
+        <v>275.835</v>
+      </c>
+      <c r="DX28" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY28" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ28" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="n" s="11">
         <v>61.309</v>
@@ -11820,24 +12160,36 @@
         <v>168.545</v>
       </c>
       <c r="DS29" t="n" s="11">
-        <v>169.81</v>
+        <v>169.514</v>
       </c>
       <c r="DT29" t="n" s="11">
-        <v>170.913</v>
+        <v>170.636</v>
       </c>
       <c r="DU29" t="n" s="11">
-        <v>165.881</v>
+        <v>165.59</v>
       </c>
       <c r="DV29" t="n" s="11">
-        <v>167.374</v>
+        <v>166.396</v>
+      </c>
+      <c r="DW29" t="n" s="11">
+        <v>165.306</v>
+      </c>
+      <c r="DX29" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY29" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ29" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="n" s="11">
         <v>9.696</v>
@@ -12200,24 +12552,36 @@
         <v>35.381</v>
       </c>
       <c r="DS30" t="n" s="11">
-        <v>35.615</v>
+        <v>35.706</v>
       </c>
       <c r="DT30" t="n" s="11">
-        <v>35.918</v>
+        <v>36.024</v>
       </c>
       <c r="DU30" t="n" s="11">
-        <v>35.224</v>
+        <v>35.26</v>
       </c>
       <c r="DV30" t="n" s="11">
-        <v>35.699</v>
+        <v>35.987</v>
+      </c>
+      <c r="DW30" t="n" s="11">
+        <v>35.761</v>
+      </c>
+      <c r="DX30" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY30" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ30" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="n" s="11">
         <v>173.343</v>
@@ -12580,24 +12944,36 @@
         <v>393.463</v>
       </c>
       <c r="DS31" t="n" s="11">
-        <v>392.563</v>
+        <v>392.152</v>
       </c>
       <c r="DT31" t="n" s="11">
-        <v>396.915</v>
+        <v>396.872</v>
       </c>
       <c r="DU31" t="n" s="11">
-        <v>401.285</v>
+        <v>401.069</v>
       </c>
       <c r="DV31" t="n" s="11">
-        <v>404.97</v>
+        <v>404.359</v>
+      </c>
+      <c r="DW31" t="n" s="11">
+        <v>405.38</v>
+      </c>
+      <c r="DX31" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY31" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ31" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="n" s="11">
         <v>80.092</v>
@@ -12960,24 +13336,36 @@
         <v>127.001</v>
       </c>
       <c r="DS32" t="n" s="11">
-        <v>129.266</v>
+        <v>128.347</v>
       </c>
       <c r="DT32" t="n" s="11">
-        <v>127.723</v>
+        <v>127.449</v>
       </c>
       <c r="DU32" t="n" s="11">
-        <v>134.993</v>
+        <v>136.112</v>
       </c>
       <c r="DV32" t="n" s="11">
-        <v>136.769</v>
+        <v>141.898</v>
+      </c>
+      <c r="DW32" t="n" s="11">
+        <v>138.657</v>
+      </c>
+      <c r="DX32" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY32" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ32" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="n" s="11">
         <v>-10.375</v>
@@ -13340,24 +13728,36 @@
         <v>-23.648</v>
       </c>
       <c r="DS33" t="n" s="11">
-        <v>-25.549</v>
+        <v>-25.231</v>
       </c>
       <c r="DT33" t="n" s="11">
-        <v>-24.024</v>
+        <v>-23.626</v>
       </c>
       <c r="DU33" t="n" s="11">
-        <v>-29.279</v>
+        <v>-28.859</v>
       </c>
       <c r="DV33" t="n" s="11">
-        <v>-32.368</v>
+        <v>-32.883</v>
+      </c>
+      <c r="DW33" t="n" s="11">
+        <v>-27.22</v>
+      </c>
+      <c r="DX33" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY33" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ33" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="n" s="11">
         <v>243.06</v>
@@ -13720,24 +14120,36 @@
         <v>496.816</v>
       </c>
       <c r="DS34" t="n" s="11">
-        <v>496.28</v>
+        <v>495.268</v>
       </c>
       <c r="DT34" t="n" s="11">
-        <v>500.614</v>
+        <v>500.695</v>
       </c>
       <c r="DU34" t="n" s="11">
-        <v>506.999</v>
+        <v>508.322</v>
       </c>
       <c r="DV34" t="n" s="11">
-        <v>509.371</v>
+        <v>513.374</v>
+      </c>
+      <c r="DW34" t="n" s="11">
+        <v>516.817</v>
+      </c>
+      <c r="DX34" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY34" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ34" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="n" s="11">
         <v>281.888</v>
@@ -14100,24 +14512,36 @@
         <v>618.076</v>
       </c>
       <c r="DS35" t="n" s="11">
-        <v>618.022</v>
+        <v>616.873</v>
       </c>
       <c r="DT35" t="n" s="11">
-        <v>629.944</v>
+        <v>630.053</v>
       </c>
       <c r="DU35" t="n" s="11">
-        <v>639.007</v>
+        <v>640.373</v>
       </c>
       <c r="DV35" t="n" s="11">
-        <v>642.575</v>
+        <v>645.101</v>
+      </c>
+      <c r="DW35" t="n" s="11">
+        <v>648.48</v>
+      </c>
+      <c r="DX35" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY35" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ35" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="n" s="11">
         <v>3.752</v>
@@ -14489,15 +14913,27 @@
         <v>15.212</v>
       </c>
       <c r="DV36" t="n" s="11">
-        <v>15.288</v>
+        <v>15.272</v>
+      </c>
+      <c r="DW36" t="n" s="11">
+        <v>15.327</v>
+      </c>
+      <c r="DX36" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY36" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ36" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="n" s="11">
         <v>30.668</v>
@@ -14860,24 +15296,36 @@
         <v>84.1</v>
       </c>
       <c r="DS37" t="n" s="11">
-        <v>97.092</v>
+        <v>96.955</v>
       </c>
       <c r="DT37" t="n" s="11">
-        <v>86.495</v>
+        <v>86.653</v>
       </c>
       <c r="DU37" t="n" s="11">
-        <v>61.976</v>
+        <v>62.216</v>
       </c>
       <c r="DV37" t="n" s="11">
-        <v>65.495</v>
+        <v>65.96</v>
+      </c>
+      <c r="DW37" t="n" s="11">
+        <v>61.339</v>
+      </c>
+      <c r="DX37" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY37" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ37" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="n" s="11">
         <v>246.812</v>
@@ -15240,24 +15688,36 @@
         <v>511.894</v>
       </c>
       <c r="DS38" t="n" s="11">
-        <v>511.448</v>
+        <v>510.436</v>
       </c>
       <c r="DT38" t="n" s="11">
-        <v>515.726</v>
+        <v>515.807</v>
       </c>
       <c r="DU38" t="n" s="11">
-        <v>522.211</v>
+        <v>523.534</v>
       </c>
       <c r="DV38" t="n" s="11">
-        <v>524.659</v>
+        <v>528.646</v>
+      </c>
+      <c r="DW38" t="n" s="11">
+        <v>532.144</v>
+      </c>
+      <c r="DX38" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY38" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ38" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="10">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C39" t="n" s="11">
         <v>12.4</v>
@@ -15630,25 +16090,37 @@
       </c>
       <c r="DV39" t="n" s="11">
         <v>12.5</v>
+      </c>
+      <c r="DW39" t="n" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="DX39" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY39" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ39" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="40" ht="33.75" customHeight="true">
       <c r="A40" t="s" s="15">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="n" s="11">
         <v>207.608</v>
       </c>
       <c r="D41" t="n" s="11">
-        <v>214.177</v>
+        <v>214.176</v>
       </c>
       <c r="E41" t="n" s="11">
         <v>214.51</v>
@@ -15666,85 +16138,85 @@
         <v>235.529</v>
       </c>
       <c r="J41" t="n" s="11">
-        <v>236.256</v>
+        <v>236.258</v>
       </c>
       <c r="K41" t="n" s="11">
         <v>233.671</v>
       </c>
       <c r="L41" t="n" s="11">
-        <v>237.463</v>
+        <v>237.458</v>
       </c>
       <c r="M41" t="n" s="11">
-        <v>237.916</v>
+        <v>237.907</v>
       </c>
       <c r="N41" t="n" s="11">
-        <v>239.907</v>
+        <v>239.932</v>
       </c>
       <c r="O41" t="n" s="11">
-        <v>241.868</v>
+        <v>241.859</v>
       </c>
       <c r="P41" t="n" s="11">
-        <v>242.062</v>
+        <v>242.049</v>
       </c>
       <c r="Q41" t="n" s="11">
-        <v>243.839</v>
+        <v>243.823</v>
       </c>
       <c r="R41" t="n" s="11">
-        <v>246.366</v>
+        <v>246.41</v>
       </c>
       <c r="S41" t="n" s="11">
-        <v>248.636</v>
+        <v>248.62</v>
       </c>
       <c r="T41" t="n" s="11">
-        <v>252.059</v>
+        <v>252.049</v>
       </c>
       <c r="U41" t="n" s="11">
-        <v>253.487</v>
+        <v>253.482</v>
       </c>
       <c r="V41" t="n" s="11">
-        <v>254.793</v>
+        <v>254.81</v>
       </c>
       <c r="W41" t="n" s="11">
-        <v>254.225</v>
+        <v>254.22</v>
       </c>
       <c r="X41" t="n" s="11">
         <v>254.066</v>
       </c>
       <c r="Y41" t="n" s="11">
-        <v>255.155</v>
+        <v>255.161</v>
       </c>
       <c r="Z41" t="n" s="11">
-        <v>255.265</v>
+        <v>255.251</v>
       </c>
       <c r="AA41" t="n" s="11">
-        <v>255.565</v>
+        <v>255.57</v>
       </c>
       <c r="AB41" t="n" s="11">
-        <v>255.367</v>
+        <v>255.372</v>
       </c>
       <c r="AC41" t="n" s="11">
-        <v>255.244</v>
+        <v>255.248</v>
       </c>
       <c r="AD41" t="n" s="11">
-        <v>256.357</v>
+        <v>256.343</v>
       </c>
       <c r="AE41" t="n" s="11">
-        <v>258.195</v>
+        <v>258.199</v>
       </c>
       <c r="AF41" t="n" s="11">
-        <v>260.03</v>
+        <v>260.034</v>
       </c>
       <c r="AG41" t="n" s="11">
-        <v>262.038</v>
+        <v>262.039</v>
       </c>
       <c r="AH41" t="n" s="11">
-        <v>264.108</v>
+        <v>264.103</v>
       </c>
       <c r="AI41" t="n" s="11">
-        <v>264.936</v>
+        <v>264.938</v>
       </c>
       <c r="AJ41" t="n" s="11">
-        <v>267.819</v>
+        <v>267.82</v>
       </c>
       <c r="AK41" t="n" s="11">
         <v>269.799</v>
@@ -15948,87 +16420,99 @@
         <v>400.379</v>
       </c>
       <c r="CZ41" t="n" s="11">
-        <v>403.557</v>
+        <v>403.556</v>
       </c>
       <c r="DA41" t="n" s="11">
-        <v>408.068</v>
+        <v>408.066</v>
       </c>
       <c r="DB41" t="n" s="11">
-        <v>412.42</v>
+        <v>412.418</v>
       </c>
       <c r="DC41" t="n" s="11">
-        <v>416.979</v>
+        <v>416.992</v>
       </c>
       <c r="DD41" t="n" s="11">
-        <v>421.708</v>
+        <v>421.729</v>
       </c>
       <c r="DE41" t="n" s="11">
-        <v>425.885</v>
+        <v>425.848</v>
       </c>
       <c r="DF41" t="n" s="11">
-        <v>431.211</v>
+        <v>431.096</v>
       </c>
       <c r="DG41" t="n" s="11">
-        <v>435.441</v>
+        <v>435.599</v>
       </c>
       <c r="DH41" t="n" s="11">
-        <v>440.998</v>
+        <v>441.256</v>
       </c>
       <c r="DI41" t="n" s="11">
-        <v>446.023</v>
+        <v>445.674</v>
       </c>
       <c r="DJ41" t="n" s="11">
-        <v>450.411</v>
+        <v>449.777</v>
       </c>
       <c r="DK41" t="n" s="11">
-        <v>455.164</v>
+        <v>456.185</v>
       </c>
       <c r="DL41" t="n" s="11">
-        <v>465.494</v>
+        <v>465.817</v>
       </c>
       <c r="DM41" t="n" s="11">
-        <v>466.624</v>
+        <v>465.981</v>
       </c>
       <c r="DN41" t="n" s="11">
-        <v>466.964</v>
+        <v>465.573</v>
       </c>
       <c r="DO41" t="n" s="11">
-        <v>466.997</v>
+        <v>468.921</v>
       </c>
       <c r="DP41" t="n" s="11">
-        <v>455.154</v>
+        <v>455.141</v>
       </c>
       <c r="DQ41" t="n" s="11">
-        <v>461.866</v>
+        <v>461.434</v>
       </c>
       <c r="DR41" t="n" s="11">
-        <v>467.398</v>
+        <v>465.288</v>
       </c>
       <c r="DS41" t="n" s="11">
-        <v>465.431</v>
+        <v>467.514</v>
       </c>
       <c r="DT41" t="n" s="11">
-        <v>480.276</v>
+        <v>480.283</v>
       </c>
       <c r="DU41" t="n" s="11">
-        <v>483.915</v>
+        <v>483.418</v>
       </c>
       <c r="DV41" t="n" s="11">
-        <v>490.902</v>
+        <v>490.151</v>
+      </c>
+      <c r="DW41" t="n" s="11">
+        <v>497.45</v>
+      </c>
+      <c r="DX41" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY41" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ41" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s" s="14">
         <v>43</v>
-      </c>
-      <c r="B42" t="s" s="14">
-        <v>42</v>
       </c>
       <c r="C42" t="n" s="11">
         <v>36.329</v>
       </c>
       <c r="D42" t="n" s="11">
-        <v>38.561</v>
+        <v>38.56</v>
       </c>
       <c r="E42" t="n" s="11">
         <v>38.496</v>
@@ -16046,85 +16530,85 @@
         <v>42.223</v>
       </c>
       <c r="J42" t="n" s="11">
-        <v>42.596</v>
+        <v>42.598</v>
       </c>
       <c r="K42" t="n" s="11">
         <v>40.442</v>
       </c>
       <c r="L42" t="n" s="11">
-        <v>42.134</v>
+        <v>42.129</v>
       </c>
       <c r="M42" t="n" s="11">
-        <v>42.21</v>
+        <v>42.201</v>
       </c>
       <c r="N42" t="n" s="11">
-        <v>42.857</v>
+        <v>42.882</v>
       </c>
       <c r="O42" t="n" s="11">
-        <v>43.873</v>
+        <v>43.864</v>
       </c>
       <c r="P42" t="n" s="11">
-        <v>44.691</v>
+        <v>44.678</v>
       </c>
       <c r="Q42" t="n" s="11">
-        <v>45.069</v>
+        <v>45.053</v>
       </c>
       <c r="R42" t="n" s="11">
-        <v>45.725</v>
+        <v>45.769</v>
       </c>
       <c r="S42" t="n" s="11">
-        <v>46.339</v>
+        <v>46.323</v>
       </c>
       <c r="T42" t="n" s="11">
-        <v>47.293</v>
+        <v>47.283</v>
       </c>
       <c r="U42" t="n" s="11">
-        <v>47.885</v>
+        <v>47.88</v>
       </c>
       <c r="V42" t="n" s="11">
-        <v>48.066</v>
+        <v>48.083</v>
       </c>
       <c r="W42" t="n" s="11">
-        <v>47.266</v>
+        <v>47.261</v>
       </c>
       <c r="X42" t="n" s="11">
         <v>47.325</v>
       </c>
       <c r="Y42" t="n" s="11">
-        <v>47.791</v>
+        <v>47.797</v>
       </c>
       <c r="Z42" t="n" s="11">
-        <v>48.313</v>
+        <v>48.299</v>
       </c>
       <c r="AA42" t="n" s="11">
-        <v>48.942</v>
+        <v>48.947</v>
       </c>
       <c r="AB42" t="n" s="11">
-        <v>49.011</v>
+        <v>49.016</v>
       </c>
       <c r="AC42" t="n" s="11">
-        <v>49.03</v>
+        <v>49.034</v>
       </c>
       <c r="AD42" t="n" s="11">
-        <v>49.297</v>
+        <v>49.283</v>
       </c>
       <c r="AE42" t="n" s="11">
-        <v>49.556</v>
+        <v>49.56</v>
       </c>
       <c r="AF42" t="n" s="11">
-        <v>50.043</v>
+        <v>50.047</v>
       </c>
       <c r="AG42" t="n" s="11">
-        <v>50.429</v>
+        <v>50.43</v>
       </c>
       <c r="AH42" t="n" s="11">
-        <v>51.089</v>
+        <v>51.084</v>
       </c>
       <c r="AI42" t="n" s="11">
-        <v>50.758</v>
+        <v>50.76</v>
       </c>
       <c r="AJ42" t="n" s="11">
-        <v>51.214</v>
+        <v>51.215</v>
       </c>
       <c r="AK42" t="n" s="11">
         <v>51.687</v>
@@ -16328,81 +16812,93 @@
         <v>70.992</v>
       </c>
       <c r="CZ42" t="n" s="11">
-        <v>71.426</v>
+        <v>71.425</v>
       </c>
       <c r="DA42" t="n" s="11">
-        <v>72.294</v>
+        <v>72.292</v>
       </c>
       <c r="DB42" t="n" s="11">
-        <v>72.88</v>
+        <v>72.878</v>
       </c>
       <c r="DC42" t="n" s="11">
-        <v>73.994</v>
+        <v>74.007</v>
       </c>
       <c r="DD42" t="n" s="11">
-        <v>74.968</v>
+        <v>74.995</v>
       </c>
       <c r="DE42" t="n" s="11">
-        <v>75.507</v>
+        <v>75.484</v>
       </c>
       <c r="DF42" t="n" s="11">
-        <v>76.536</v>
+        <v>76.428</v>
       </c>
       <c r="DG42" t="n" s="11">
-        <v>76.203</v>
+        <v>76.186</v>
       </c>
       <c r="DH42" t="n" s="11">
-        <v>77.185</v>
+        <v>77.447</v>
       </c>
       <c r="DI42" t="n" s="11">
-        <v>78.385</v>
+        <v>78.407</v>
       </c>
       <c r="DJ42" t="n" s="11">
-        <v>79.459</v>
+        <v>79.545</v>
       </c>
       <c r="DK42" t="n" s="11">
-        <v>81.373</v>
+        <v>80.238</v>
       </c>
       <c r="DL42" t="n" s="11">
-        <v>81.925</v>
+        <v>82.823</v>
       </c>
       <c r="DM42" t="n" s="11">
-        <v>83.511</v>
+        <v>83.924</v>
       </c>
       <c r="DN42" t="n" s="11">
-        <v>84.763</v>
+        <v>85.09</v>
       </c>
       <c r="DO42" t="n" s="11">
-        <v>83.578</v>
+        <v>82.112</v>
       </c>
       <c r="DP42" t="n" s="11">
-        <v>83.638</v>
+        <v>83.358</v>
       </c>
       <c r="DQ42" t="n" s="11">
-        <v>84.491</v>
+        <v>85.853</v>
       </c>
       <c r="DR42" t="n" s="11">
-        <v>86.491</v>
+        <v>86.427</v>
       </c>
       <c r="DS42" t="n" s="11">
-        <v>85.613</v>
+        <v>85.416</v>
       </c>
       <c r="DT42" t="n" s="11">
-        <v>86.732</v>
+        <v>84.857</v>
       </c>
       <c r="DU42" t="n" s="11">
-        <v>87.268</v>
+        <v>89.107</v>
       </c>
       <c r="DV42" t="n" s="11">
-        <v>89.888</v>
+        <v>89.802</v>
+      </c>
+      <c r="DW42" t="n" s="11">
+        <v>89.133</v>
+      </c>
+      <c r="DX42" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY42" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ42" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="n" s="11">
         <v>171.279</v>
@@ -16720,69 +17216,81 @@
         <v>342.985</v>
       </c>
       <c r="DD43" t="n" s="11">
-        <v>346.74</v>
+        <v>346.734</v>
       </c>
       <c r="DE43" t="n" s="11">
-        <v>350.378</v>
+        <v>350.364</v>
       </c>
       <c r="DF43" t="n" s="11">
-        <v>354.675</v>
+        <v>354.668</v>
       </c>
       <c r="DG43" t="n" s="11">
-        <v>359.238</v>
+        <v>359.413</v>
       </c>
       <c r="DH43" t="n" s="11">
-        <v>363.813</v>
+        <v>363.809</v>
       </c>
       <c r="DI43" t="n" s="11">
-        <v>367.638</v>
+        <v>367.267</v>
       </c>
       <c r="DJ43" t="n" s="11">
-        <v>370.952</v>
+        <v>370.232</v>
       </c>
       <c r="DK43" t="n" s="11">
-        <v>373.791</v>
+        <v>375.947</v>
       </c>
       <c r="DL43" t="n" s="11">
-        <v>383.569</v>
+        <v>382.994</v>
       </c>
       <c r="DM43" t="n" s="11">
-        <v>383.113</v>
+        <v>382.057</v>
       </c>
       <c r="DN43" t="n" s="11">
-        <v>382.201</v>
+        <v>380.483</v>
       </c>
       <c r="DO43" t="n" s="11">
-        <v>383.419</v>
+        <v>386.809</v>
       </c>
       <c r="DP43" t="n" s="11">
-        <v>371.516</v>
+        <v>371.783</v>
       </c>
       <c r="DQ43" t="n" s="11">
-        <v>377.375</v>
+        <v>375.581</v>
       </c>
       <c r="DR43" t="n" s="11">
-        <v>380.907</v>
+        <v>378.861</v>
       </c>
       <c r="DS43" t="n" s="11">
-        <v>379.818</v>
+        <v>382.098</v>
       </c>
       <c r="DT43" t="n" s="11">
-        <v>393.544</v>
+        <v>395.426</v>
       </c>
       <c r="DU43" t="n" s="11">
-        <v>396.647</v>
+        <v>394.311</v>
       </c>
       <c r="DV43" t="n" s="11">
-        <v>401.014</v>
+        <v>400.349</v>
+      </c>
+      <c r="DW43" t="n" s="11">
+        <v>408.317</v>
+      </c>
+      <c r="DX43" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY43" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ43" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" t="n" s="11">
         <v>49.073</v>
@@ -17100,69 +17608,81 @@
         <v>113.556</v>
       </c>
       <c r="DD44" t="n" s="11">
-        <v>115.138</v>
+        <v>115.136</v>
       </c>
       <c r="DE44" t="n" s="11">
-        <v>116.194</v>
+        <v>116.189</v>
       </c>
       <c r="DF44" t="n" s="11">
-        <v>117.614</v>
+        <v>117.611</v>
       </c>
       <c r="DG44" t="n" s="11">
-        <v>119.509</v>
+        <v>119.565</v>
       </c>
       <c r="DH44" t="n" s="11">
-        <v>121.037</v>
+        <v>121.036</v>
       </c>
       <c r="DI44" t="n" s="11">
-        <v>122.301</v>
+        <v>122.177</v>
       </c>
       <c r="DJ44" t="n" s="11">
-        <v>123.042</v>
+        <v>122.8</v>
       </c>
       <c r="DK44" t="n" s="11">
-        <v>123.087</v>
+        <v>123.773</v>
       </c>
       <c r="DL44" t="n" s="11">
-        <v>126.414</v>
+        <v>126.366</v>
       </c>
       <c r="DM44" t="n" s="11">
-        <v>126.013</v>
+        <v>125.677</v>
       </c>
       <c r="DN44" t="n" s="11">
-        <v>126.328</v>
+        <v>125.51</v>
       </c>
       <c r="DO44" t="n" s="11">
-        <v>126.372</v>
+        <v>126.926</v>
       </c>
       <c r="DP44" t="n" s="11">
-        <v>119.549</v>
+        <v>121.297</v>
       </c>
       <c r="DQ44" t="n" s="11">
-        <v>123.067</v>
+        <v>122.039</v>
       </c>
       <c r="DR44" t="n" s="11">
-        <v>123.646</v>
+        <v>122.431</v>
       </c>
       <c r="DS44" t="n" s="11">
-        <v>123.896</v>
+        <v>123.374</v>
       </c>
       <c r="DT44" t="n" s="11">
-        <v>123.814</v>
+        <v>127.148</v>
       </c>
       <c r="DU44" t="n" s="11">
-        <v>128.787</v>
+        <v>127.077</v>
       </c>
       <c r="DV44" t="n" s="11">
-        <v>130.338</v>
+        <v>129.306</v>
+      </c>
+      <c r="DW44" t="n" s="11">
+        <v>133.028</v>
+      </c>
+      <c r="DX44" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY44" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ44" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" t="n" s="11">
         <v>122.206</v>
@@ -17480,69 +18000,81 @@
         <v>229.429</v>
       </c>
       <c r="DD45" t="n" s="11">
-        <v>231.602</v>
+        <v>231.598</v>
       </c>
       <c r="DE45" t="n" s="11">
-        <v>234.184</v>
+        <v>234.175</v>
       </c>
       <c r="DF45" t="n" s="11">
-        <v>237.061</v>
+        <v>237.057</v>
       </c>
       <c r="DG45" t="n" s="11">
-        <v>239.729</v>
+        <v>239.848</v>
       </c>
       <c r="DH45" t="n" s="11">
-        <v>242.776</v>
+        <v>242.773</v>
       </c>
       <c r="DI45" t="n" s="11">
-        <v>245.337</v>
+        <v>245.09</v>
       </c>
       <c r="DJ45" t="n" s="11">
-        <v>247.91</v>
+        <v>247.432</v>
       </c>
       <c r="DK45" t="n" s="11">
-        <v>250.704</v>
+        <v>252.174</v>
       </c>
       <c r="DL45" t="n" s="11">
-        <v>257.155</v>
+        <v>256.628</v>
       </c>
       <c r="DM45" t="n" s="11">
-        <v>257.1</v>
+        <v>256.38</v>
       </c>
       <c r="DN45" t="n" s="11">
-        <v>255.873</v>
+        <v>254.973</v>
       </c>
       <c r="DO45" t="n" s="11">
-        <v>257.047</v>
+        <v>259.883</v>
       </c>
       <c r="DP45" t="n" s="11">
-        <v>251.967</v>
+        <v>250.486</v>
       </c>
       <c r="DQ45" t="n" s="11">
-        <v>254.308</v>
+        <v>253.542</v>
       </c>
       <c r="DR45" t="n" s="11">
-        <v>257.261</v>
+        <v>256.43</v>
       </c>
       <c r="DS45" t="n" s="11">
-        <v>255.922</v>
+        <v>258.724</v>
       </c>
       <c r="DT45" t="n" s="11">
-        <v>269.73</v>
+        <v>268.278</v>
       </c>
       <c r="DU45" t="n" s="11">
-        <v>267.86</v>
+        <v>267.234</v>
       </c>
       <c r="DV45" t="n" s="11">
-        <v>270.676</v>
+        <v>271.043</v>
+      </c>
+      <c r="DW45" t="n" s="11">
+        <v>275.289</v>
+      </c>
+      <c r="DX45" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY45" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ45" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" t="n" s="11">
         <v>61.495</v>
@@ -17866,63 +18398,75 @@
         <v>141.551</v>
       </c>
       <c r="DF46" t="n" s="11">
-        <v>142.884</v>
+        <v>142.883</v>
       </c>
       <c r="DG46" t="n" s="11">
-        <v>143.815</v>
+        <v>143.814</v>
       </c>
       <c r="DH46" t="n" s="11">
-        <v>144.522</v>
+        <v>144.538</v>
       </c>
       <c r="DI46" t="n" s="11">
-        <v>145.86</v>
+        <v>145.859</v>
       </c>
       <c r="DJ46" t="n" s="11">
-        <v>147.608</v>
+        <v>147.575</v>
       </c>
       <c r="DK46" t="n" s="11">
-        <v>149.798</v>
+        <v>149.738</v>
       </c>
       <c r="DL46" t="n" s="11">
-        <v>150.845</v>
+        <v>151.044</v>
       </c>
       <c r="DM46" t="n" s="11">
-        <v>153.175</v>
+        <v>153.11</v>
       </c>
       <c r="DN46" t="n" s="11">
-        <v>155.697</v>
+        <v>155.6</v>
       </c>
       <c r="DO46" t="n" s="11">
-        <v>158.347</v>
+        <v>158.246</v>
       </c>
       <c r="DP46" t="n" s="11">
-        <v>164.132</v>
+        <v>164.481</v>
       </c>
       <c r="DQ46" t="n" s="11">
-        <v>167.607</v>
+        <v>167.601</v>
       </c>
       <c r="DR46" t="n" s="11">
-        <v>168.987</v>
+        <v>168.949</v>
       </c>
       <c r="DS46" t="n" s="11">
-        <v>170.929</v>
+        <v>170.312</v>
       </c>
       <c r="DT46" t="n" s="11">
-        <v>169.061</v>
+        <v>169.102</v>
       </c>
       <c r="DU46" t="n" s="11">
-        <v>166.39</v>
+        <v>166.246</v>
       </c>
       <c r="DV46" t="n" s="11">
-        <v>167.51</v>
+        <v>166.632</v>
+      </c>
+      <c r="DW46" t="n" s="11">
+        <v>165.747</v>
+      </c>
+      <c r="DX46" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY46" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ46" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C47" t="n" s="11">
         <v>9.868</v>
@@ -18243,66 +18787,78 @@
         <v>30.718</v>
       </c>
       <c r="DE47" t="n" s="11">
-        <v>30.902</v>
+        <v>30.903</v>
       </c>
       <c r="DF47" t="n" s="11">
-        <v>31.215</v>
+        <v>31.216</v>
       </c>
       <c r="DG47" t="n" s="11">
         <v>31.518</v>
       </c>
       <c r="DH47" t="n" s="11">
-        <v>31.615</v>
+        <v>31.603</v>
       </c>
       <c r="DI47" t="n" s="11">
         <v>31.972</v>
       </c>
       <c r="DJ47" t="n" s="11">
-        <v>32.365</v>
+        <v>32.392</v>
       </c>
       <c r="DK47" t="n" s="11">
-        <v>32.993</v>
+        <v>33.043</v>
       </c>
       <c r="DL47" t="n" s="11">
-        <v>33.74</v>
+        <v>33.584</v>
       </c>
       <c r="DM47" t="n" s="11">
-        <v>33.884</v>
+        <v>33.939</v>
       </c>
       <c r="DN47" t="n" s="11">
-        <v>34.455</v>
+        <v>34.538</v>
       </c>
       <c r="DO47" t="n" s="11">
-        <v>34.56</v>
+        <v>34.653</v>
       </c>
       <c r="DP47" t="n" s="11">
-        <v>34.73</v>
+        <v>34.439</v>
       </c>
       <c r="DQ47" t="n" s="11">
-        <v>35.606</v>
+        <v>35.745</v>
       </c>
       <c r="DR47" t="n" s="11">
-        <v>35.374</v>
+        <v>35.46</v>
       </c>
       <c r="DS47" t="n" s="11">
-        <v>35.689</v>
+        <v>35.839</v>
       </c>
       <c r="DT47" t="n" s="11">
-        <v>35.855</v>
+        <v>35.67</v>
       </c>
       <c r="DU47" t="n" s="11">
-        <v>35.262</v>
+        <v>35.454</v>
       </c>
       <c r="DV47" t="n" s="11">
-        <v>35.659</v>
+        <v>36.019</v>
+      </c>
+      <c r="DW47" t="n" s="11">
+        <v>35.861</v>
+      </c>
+      <c r="DX47" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY47" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ47" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C48" t="n" s="11">
         <v>173.833</v>
@@ -18620,69 +19176,81 @@
         <v>338.836</v>
       </c>
       <c r="DD48" t="n" s="11">
-        <v>341.7</v>
+        <v>341.696</v>
       </c>
       <c r="DE48" t="n" s="11">
-        <v>344.833</v>
+        <v>344.823</v>
       </c>
       <c r="DF48" t="n" s="11">
-        <v>348.73</v>
+        <v>348.724</v>
       </c>
       <c r="DG48" t="n" s="11">
-        <v>352.026</v>
+        <v>352.144</v>
       </c>
       <c r="DH48" t="n" s="11">
-        <v>355.683</v>
+        <v>355.708</v>
       </c>
       <c r="DI48" t="n" s="11">
-        <v>359.225</v>
+        <v>358.977</v>
       </c>
       <c r="DJ48" t="n" s="11">
-        <v>363.153</v>
+        <v>362.615</v>
       </c>
       <c r="DK48" t="n" s="11">
-        <v>367.509</v>
+        <v>368.869</v>
       </c>
       <c r="DL48" t="n" s="11">
-        <v>374.26</v>
+        <v>374.088</v>
       </c>
       <c r="DM48" t="n" s="11">
-        <v>376.391</v>
+        <v>375.551</v>
       </c>
       <c r="DN48" t="n" s="11">
-        <v>377.115</v>
+        <v>376.035</v>
       </c>
       <c r="DO48" t="n" s="11">
-        <v>380.834</v>
+        <v>383.476</v>
       </c>
       <c r="DP48" t="n" s="11">
-        <v>381.369</v>
+        <v>380.528</v>
       </c>
       <c r="DQ48" t="n" s="11">
-        <v>386.309</v>
+        <v>385.398</v>
       </c>
       <c r="DR48" t="n" s="11">
-        <v>390.874</v>
+        <v>389.919</v>
       </c>
       <c r="DS48" t="n" s="11">
-        <v>391.162</v>
+        <v>393.197</v>
       </c>
       <c r="DT48" t="n" s="11">
-        <v>402.936</v>
+        <v>401.71</v>
       </c>
       <c r="DU48" t="n" s="11">
-        <v>398.988</v>
+        <v>398.026</v>
       </c>
       <c r="DV48" t="n" s="11">
-        <v>402.527</v>
+        <v>401.656</v>
+      </c>
+      <c r="DW48" t="n" s="11">
+        <v>405.175</v>
+      </c>
+      <c r="DX48" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY48" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ48" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C49" t="n" s="11">
         <v>78.893</v>
@@ -18769,73 +19337,73 @@
         <v>104.505</v>
       </c>
       <c r="AE49" t="n" s="11">
-        <v>104.087</v>
+        <v>104.082</v>
       </c>
       <c r="AF49" t="n" s="11">
-        <v>102.275</v>
+        <v>102.264</v>
       </c>
       <c r="AG49" t="n" s="11">
-        <v>104.533</v>
+        <v>104.528</v>
       </c>
       <c r="AH49" t="n" s="11">
-        <v>105.523</v>
+        <v>105.657</v>
       </c>
       <c r="AI49" t="n" s="11">
-        <v>105.272</v>
+        <v>105.268</v>
       </c>
       <c r="AJ49" t="n" s="11">
-        <v>106.024</v>
+        <v>105.743</v>
       </c>
       <c r="AK49" t="n" s="11">
-        <v>105.549</v>
+        <v>105.004</v>
       </c>
       <c r="AL49" t="n" s="11">
-        <v>104.799</v>
+        <v>106.457</v>
       </c>
       <c r="AM49" t="n" s="11">
-        <v>104.488</v>
+        <v>103.942</v>
       </c>
       <c r="AN49" t="n" s="11">
-        <v>105.263</v>
+        <v>104.457</v>
       </c>
       <c r="AO49" t="n" s="11">
-        <v>104.395</v>
+        <v>103.303</v>
       </c>
       <c r="AP49" t="n" s="11">
-        <v>99.364</v>
+        <v>102.366</v>
       </c>
       <c r="AQ49" t="n" s="11">
-        <v>111.003</v>
+        <v>109.911</v>
       </c>
       <c r="AR49" t="n" s="11">
-        <v>110.581</v>
+        <v>109.775</v>
       </c>
       <c r="AS49" t="n" s="11">
-        <v>110.379</v>
+        <v>109.834</v>
       </c>
       <c r="AT49" t="n" s="11">
-        <v>108.025</v>
+        <v>109.684</v>
       </c>
       <c r="AU49" t="n" s="11">
-        <v>103.548</v>
+        <v>103.003</v>
       </c>
       <c r="AV49" t="n" s="11">
-        <v>104.469</v>
+        <v>104.188</v>
       </c>
       <c r="AW49" t="n" s="11">
-        <v>104.751</v>
+        <v>104.748</v>
       </c>
       <c r="AX49" t="n" s="11">
-        <v>106.463</v>
+        <v>106.597</v>
       </c>
       <c r="AY49" t="n" s="11">
-        <v>110.286</v>
+        <v>110.281</v>
       </c>
       <c r="AZ49" t="n" s="11">
-        <v>110.127</v>
+        <v>110.117</v>
       </c>
       <c r="BA49" t="n" s="11">
-        <v>111.28</v>
+        <v>111.276</v>
       </c>
       <c r="BB49" t="n" s="11">
         <v>109.83</v>
@@ -19000,69 +19568,81 @@
         <v>141.87</v>
       </c>
       <c r="DD49" t="n" s="11">
-        <v>141.266</v>
+        <v>141.261</v>
       </c>
       <c r="DE49" t="n" s="11">
-        <v>145.126</v>
+        <v>145.111</v>
       </c>
       <c r="DF49" t="n" s="11">
-        <v>144.747</v>
+        <v>144.734</v>
       </c>
       <c r="DG49" t="n" s="11">
-        <v>148.877</v>
+        <v>149.028</v>
       </c>
       <c r="DH49" t="n" s="11">
-        <v>147.893</v>
+        <v>147.981</v>
       </c>
       <c r="DI49" t="n" s="11">
-        <v>145.942</v>
+        <v>145.616</v>
       </c>
       <c r="DJ49" t="n" s="11">
-        <v>145.758</v>
+        <v>144.94</v>
       </c>
       <c r="DK49" t="n" s="11">
-        <v>140.239</v>
+        <v>141.786</v>
       </c>
       <c r="DL49" t="n" s="11">
-        <v>142.459</v>
+        <v>142.969</v>
       </c>
       <c r="DM49" t="n" s="11">
-        <v>140.908</v>
+        <v>139.54</v>
       </c>
       <c r="DN49" t="n" s="11">
-        <v>140.624</v>
+        <v>138.64</v>
       </c>
       <c r="DO49" t="n" s="11">
-        <v>141.581</v>
+        <v>144.525</v>
       </c>
       <c r="DP49" t="n" s="11">
-        <v>126.406</v>
+        <v>127.534</v>
       </c>
       <c r="DQ49" t="n" s="11">
-        <v>130.978</v>
+        <v>128.849</v>
       </c>
       <c r="DR49" t="n" s="11">
-        <v>128.487</v>
+        <v>126.031</v>
       </c>
       <c r="DS49" t="n" s="11">
-        <v>126.221</v>
+        <v>128.602</v>
       </c>
       <c r="DT49" t="n" s="11">
-        <v>128.496</v>
+        <v>129.877</v>
       </c>
       <c r="DU49" t="n" s="11">
-        <v>136.136</v>
+        <v>135.279</v>
       </c>
       <c r="DV49" t="n" s="11">
-        <v>137.804</v>
+        <v>139.832</v>
+      </c>
+      <c r="DW49" t="n" s="11">
+        <v>141.094</v>
+      </c>
+      <c r="DX49" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY49" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ49" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C50" t="n" s="11">
         <v>-9.096</v>
@@ -19149,73 +19729,73 @@
         <v>-8.973</v>
       </c>
       <c r="AE50" t="n" s="11">
-        <v>-9.094</v>
+        <v>-9.089</v>
       </c>
       <c r="AF50" t="n" s="11">
-        <v>-9.63</v>
+        <v>-9.619</v>
       </c>
       <c r="AG50" t="n" s="11">
-        <v>-10.549</v>
+        <v>-10.544</v>
       </c>
       <c r="AH50" t="n" s="11">
-        <v>-10.995</v>
+        <v>-11.129</v>
       </c>
       <c r="AI50" t="n" s="11">
-        <v>-11.108</v>
+        <v>-11.104</v>
       </c>
       <c r="AJ50" t="n" s="11">
-        <v>-11.742</v>
+        <v>-11.461</v>
       </c>
       <c r="AK50" t="n" s="11">
-        <v>-12.393</v>
+        <v>-11.848</v>
       </c>
       <c r="AL50" t="n" s="11">
-        <v>-10.401</v>
+        <v>-12.059</v>
       </c>
       <c r="AM50" t="n" s="11">
-        <v>-13.534</v>
+        <v>-12.988</v>
       </c>
       <c r="AN50" t="n" s="11">
-        <v>-14.545</v>
+        <v>-13.739</v>
       </c>
       <c r="AO50" t="n" s="11">
-        <v>-14.364</v>
+        <v>-13.272</v>
       </c>
       <c r="AP50" t="n" s="11">
-        <v>-11.092</v>
+        <v>-14.094</v>
       </c>
       <c r="AQ50" t="n" s="11">
-        <v>-15.187</v>
+        <v>-14.095</v>
       </c>
       <c r="AR50" t="n" s="11">
-        <v>-14.251</v>
+        <v>-13.445</v>
       </c>
       <c r="AS50" t="n" s="11">
-        <v>-13.987</v>
+        <v>-13.442</v>
       </c>
       <c r="AT50" t="n" s="11">
-        <v>-10.94</v>
+        <v>-12.599</v>
       </c>
       <c r="AU50" t="n" s="11">
-        <v>-12.863</v>
+        <v>-12.318</v>
       </c>
       <c r="AV50" t="n" s="11">
-        <v>-12.862</v>
+        <v>-12.581</v>
       </c>
       <c r="AW50" t="n" s="11">
-        <v>-11.752</v>
+        <v>-11.749</v>
       </c>
       <c r="AX50" t="n" s="11">
-        <v>-11.398</v>
+        <v>-11.532</v>
       </c>
       <c r="AY50" t="n" s="11">
-        <v>-10.729</v>
+        <v>-10.724</v>
       </c>
       <c r="AZ50" t="n" s="11">
-        <v>-10.493</v>
+        <v>-10.483</v>
       </c>
       <c r="BA50" t="n" s="11">
-        <v>-10.915</v>
+        <v>-10.911</v>
       </c>
       <c r="BB50" t="n" s="11">
         <v>-10.975</v>
@@ -19356,93 +19936,105 @@
         <v>-21.163</v>
       </c>
       <c r="CV50" t="n" s="11">
-        <v>-19.979</v>
+        <v>-19.98</v>
       </c>
       <c r="CW50" t="n" s="11">
-        <v>-21.895</v>
+        <v>-21.896</v>
       </c>
       <c r="CX50" t="n" s="11">
-        <v>-21.765</v>
+        <v>-21.753</v>
       </c>
       <c r="CY50" t="n" s="11">
         <v>-21.415</v>
       </c>
       <c r="CZ50" t="n" s="11">
-        <v>-22.548</v>
+        <v>-22.569</v>
       </c>
       <c r="DA50" t="n" s="11">
-        <v>-21.964</v>
+        <v>-22.017</v>
       </c>
       <c r="DB50" t="n" s="11">
-        <v>-23.492</v>
+        <v>-23.348</v>
       </c>
       <c r="DC50" t="n" s="11">
-        <v>-24.587</v>
+        <v>-24.654</v>
       </c>
       <c r="DD50" t="n" s="11">
-        <v>-25.844</v>
+        <v>-25.84</v>
       </c>
       <c r="DE50" t="n" s="11">
-        <v>-25.792</v>
+        <v>-25.952</v>
       </c>
       <c r="DF50" t="n" s="11">
-        <v>-25.481</v>
+        <v>-25.256</v>
       </c>
       <c r="DG50" t="n" s="11">
-        <v>-24.311</v>
+        <v>-24.392</v>
       </c>
       <c r="DH50" t="n" s="11">
-        <v>-28.736</v>
+        <v>-28.633</v>
       </c>
       <c r="DI50" t="n" s="11">
-        <v>-23.654</v>
+        <v>-23.915</v>
       </c>
       <c r="DJ50" t="n" s="11">
-        <v>-22.317</v>
+        <v>-21.894</v>
       </c>
       <c r="DK50" t="n" s="11">
-        <v>-19.786</v>
+        <v>-20.595</v>
       </c>
       <c r="DL50" t="n" s="11">
-        <v>-34.718</v>
+        <v>-34.061</v>
       </c>
       <c r="DM50" t="n" s="11">
-        <v>-24.233</v>
+        <v>-23.779</v>
       </c>
       <c r="DN50" t="n" s="11">
-        <v>-21.454</v>
+        <v>-21.877</v>
       </c>
       <c r="DO50" t="n" s="11">
-        <v>-16.66</v>
+        <v>-18.204</v>
       </c>
       <c r="DP50" t="n" s="11">
-        <v>-35.198</v>
+        <v>-33.448</v>
       </c>
       <c r="DQ50" t="n" s="11">
-        <v>-22.231</v>
+        <v>-21.53</v>
       </c>
       <c r="DR50" t="n" s="11">
-        <v>-18.6</v>
+        <v>-19.607</v>
       </c>
       <c r="DS50" t="n" s="11">
-        <v>-12.762</v>
+        <v>-13.785</v>
       </c>
       <c r="DT50" t="n" s="11">
-        <v>-42.025</v>
+        <v>-39.504</v>
       </c>
       <c r="DU50" t="n" s="11">
-        <v>-29.974</v>
+        <v>-29.408</v>
       </c>
       <c r="DV50" t="n" s="11">
-        <v>-27.666</v>
+        <v>-28.38</v>
+      </c>
+      <c r="DW50" t="n" s="11">
+        <v>-17.997</v>
+      </c>
+      <c r="DX50" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY50" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ50" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" t="n" s="11">
         <v>243.63</v>
@@ -19736,93 +20328,105 @@
         <v>425.451</v>
       </c>
       <c r="CV51" t="n" s="11">
-        <v>429.269</v>
+        <v>429.268</v>
       </c>
       <c r="CW51" t="n" s="11">
-        <v>433.186</v>
+        <v>433.185</v>
       </c>
       <c r="CX51" t="n" s="11">
-        <v>437.273</v>
+        <v>437.285</v>
       </c>
       <c r="CY51" t="n" s="11">
         <v>440.333</v>
       </c>
       <c r="CZ51" t="n" s="11">
-        <v>445.405</v>
+        <v>445.384</v>
       </c>
       <c r="DA51" t="n" s="11">
-        <v>448.284</v>
+        <v>448.231</v>
       </c>
       <c r="DB51" t="n" s="11">
-        <v>452.317</v>
+        <v>452.461</v>
       </c>
       <c r="DC51" t="n" s="11">
-        <v>456.119</v>
+        <v>456.052</v>
       </c>
       <c r="DD51" t="n" s="11">
-        <v>457.122</v>
+        <v>457.117</v>
       </c>
       <c r="DE51" t="n" s="11">
-        <v>464.167</v>
+        <v>463.982</v>
       </c>
       <c r="DF51" t="n" s="11">
-        <v>467.996</v>
+        <v>468.202</v>
       </c>
       <c r="DG51" t="n" s="11">
-        <v>476.592</v>
+        <v>476.78</v>
       </c>
       <c r="DH51" t="n" s="11">
-        <v>474.84</v>
+        <v>475.056</v>
       </c>
       <c r="DI51" t="n" s="11">
-        <v>481.513</v>
+        <v>480.678</v>
       </c>
       <c r="DJ51" t="n" s="11">
-        <v>486.594</v>
+        <v>485.661</v>
       </c>
       <c r="DK51" t="n" s="11">
-        <v>487.962</v>
+        <v>490.06</v>
       </c>
       <c r="DL51" t="n" s="11">
-        <v>482.001</v>
+        <v>482.996</v>
       </c>
       <c r="DM51" t="n" s="11">
-        <v>493.066</v>
+        <v>491.312</v>
       </c>
       <c r="DN51" t="n" s="11">
-        <v>496.285</v>
+        <v>492.798</v>
       </c>
       <c r="DO51" t="n" s="11">
-        <v>505.755</v>
+        <v>509.797</v>
       </c>
       <c r="DP51" t="n" s="11">
-        <v>472.577</v>
+        <v>474.614</v>
       </c>
       <c r="DQ51" t="n" s="11">
-        <v>495.056</v>
+        <v>492.717</v>
       </c>
       <c r="DR51" t="n" s="11">
-        <v>500.761</v>
+        <v>496.343</v>
       </c>
       <c r="DS51" t="n" s="11">
-        <v>504.621</v>
+        <v>508.014</v>
       </c>
       <c r="DT51" t="n" s="11">
-        <v>489.407</v>
+        <v>492.083</v>
       </c>
       <c r="DU51" t="n" s="11">
-        <v>505.15</v>
+        <v>503.897</v>
       </c>
       <c r="DV51" t="n" s="11">
-        <v>512.665</v>
+        <v>513.108</v>
+      </c>
+      <c r="DW51" t="n" s="11">
+        <v>528.272</v>
+      </c>
+      <c r="DX51" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY51" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ51" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C52" t="n" s="11">
         <v>283.479</v>
@@ -20116,93 +20720,105 @@
         <v>519.21</v>
       </c>
       <c r="CV52" t="n" s="11">
-        <v>524.389</v>
+        <v>524.388</v>
       </c>
       <c r="CW52" t="n" s="11">
-        <v>529.483</v>
+        <v>529.482</v>
       </c>
       <c r="CX52" t="n" s="11">
-        <v>535.421</v>
+        <v>535.433</v>
       </c>
       <c r="CY52" t="n" s="11">
         <v>539.993</v>
       </c>
       <c r="CZ52" t="n" s="11">
-        <v>546.162</v>
+        <v>546.141</v>
       </c>
       <c r="DA52" t="n" s="11">
-        <v>550.067</v>
+        <v>550.014</v>
       </c>
       <c r="DB52" t="n" s="11">
-        <v>554.588</v>
+        <v>554.732</v>
       </c>
       <c r="DC52" t="n" s="11">
-        <v>559.379</v>
+        <v>559.312</v>
       </c>
       <c r="DD52" t="n" s="11">
-        <v>561.313</v>
+        <v>561.308</v>
       </c>
       <c r="DE52" t="n" s="11">
-        <v>569.293</v>
+        <v>569.108</v>
       </c>
       <c r="DF52" t="n" s="11">
-        <v>574.207</v>
+        <v>574.413</v>
       </c>
       <c r="DG52" t="n" s="11">
-        <v>582.998</v>
+        <v>583.186</v>
       </c>
       <c r="DH52" t="n" s="11">
-        <v>582.415</v>
+        <v>582.631</v>
       </c>
       <c r="DI52" t="n" s="11">
-        <v>589.643</v>
+        <v>588.808</v>
       </c>
       <c r="DJ52" t="n" s="11">
-        <v>595.897</v>
+        <v>594.964</v>
       </c>
       <c r="DK52" t="n" s="11">
-        <v>598.931</v>
+        <v>601.03</v>
       </c>
       <c r="DL52" t="n" s="11">
-        <v>595.29</v>
+        <v>596.285</v>
       </c>
       <c r="DM52" t="n" s="11">
-        <v>606.677</v>
+        <v>604.907</v>
       </c>
       <c r="DN52" t="n" s="11">
-        <v>611.299</v>
+        <v>607.797</v>
       </c>
       <c r="DO52" t="n" s="11">
-        <v>622.093</v>
+        <v>626.173</v>
       </c>
       <c r="DP52" t="n" s="11">
-        <v>588.817</v>
+        <v>590.913</v>
       </c>
       <c r="DQ52" t="n" s="11">
-        <v>613.999</v>
+        <v>611.328</v>
       </c>
       <c r="DR52" t="n" s="11">
-        <v>621.106</v>
+        <v>616.564</v>
       </c>
       <c r="DS52" t="n" s="11">
-        <v>626.469</v>
+        <v>630.081</v>
       </c>
       <c r="DT52" t="n" s="11">
-        <v>621.553</v>
+        <v>624.397</v>
       </c>
       <c r="DU52" t="n" s="11">
-        <v>634.976</v>
+        <v>633.086</v>
       </c>
       <c r="DV52" t="n" s="11">
-        <v>645.172</v>
+        <v>643.973</v>
+      </c>
+      <c r="DW52" t="n" s="11">
+        <v>660.808</v>
+      </c>
+      <c r="DX52" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY52" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ52" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C53" t="n" s="11">
         <v>3.859</v>
@@ -20304,31 +20920,31 @@
         <v>4.908</v>
       </c>
       <c r="AJ53" t="n" s="11">
-        <v>4.966</v>
+        <v>4.967</v>
       </c>
       <c r="AK53" t="n" s="11">
-        <v>5.067</v>
+        <v>5.068</v>
       </c>
       <c r="AL53" t="n" s="11">
-        <v>4.919</v>
+        <v>4.918</v>
       </c>
       <c r="AM53" t="n" s="11">
         <v>7.651</v>
       </c>
       <c r="AN53" t="n" s="11">
-        <v>7.692</v>
+        <v>7.693</v>
       </c>
       <c r="AO53" t="n" s="11">
-        <v>7.864</v>
+        <v>7.865</v>
       </c>
       <c r="AP53" t="n" s="11">
-        <v>7.527</v>
+        <v>7.526</v>
       </c>
       <c r="AQ53" t="n" s="11">
         <v>6.23</v>
       </c>
       <c r="AR53" t="n" s="11">
-        <v>6.228</v>
+        <v>6.229</v>
       </c>
       <c r="AS53" t="n" s="11">
         <v>6.117</v>
@@ -20499,90 +21115,102 @@
         <v>14.525</v>
       </c>
       <c r="CW53" t="n" s="11">
-        <v>14.522</v>
+        <v>14.523</v>
       </c>
       <c r="CX53" t="n" s="11">
+        <v>14.446</v>
+      </c>
+      <c r="CY53" t="n" s="11">
+        <v>14.116</v>
+      </c>
+      <c r="CZ53" t="n" s="11">
+        <v>14.009</v>
+      </c>
+      <c r="DA53" t="n" s="11">
+        <v>14.101</v>
+      </c>
+      <c r="DB53" t="n" s="11">
         <v>14.45</v>
       </c>
-      <c r="CY53" t="n" s="11">
-        <v>14.123</v>
-      </c>
-      <c r="CZ53" t="n" s="11">
-        <v>14.001</v>
-      </c>
-      <c r="DA53" t="n" s="11">
-        <v>14.073</v>
-      </c>
-      <c r="DB53" t="n" s="11">
-        <v>14.468</v>
-      </c>
       <c r="DC53" t="n" s="11">
-        <v>15.011</v>
+        <v>14.944</v>
       </c>
       <c r="DD53" t="n" s="11">
-        <v>15.206</v>
+        <v>15.254</v>
       </c>
       <c r="DE53" t="n" s="11">
-        <v>15.159</v>
+        <v>15.228</v>
       </c>
       <c r="DF53" t="n" s="11">
-        <v>15.443</v>
+        <v>15.415</v>
       </c>
       <c r="DG53" t="n" s="11">
-        <v>14.046</v>
+        <v>13.927</v>
       </c>
       <c r="DH53" t="n" s="11">
-        <v>13.867</v>
+        <v>13.943</v>
       </c>
       <c r="DI53" t="n" s="11">
-        <v>13.984</v>
+        <v>14.039</v>
       </c>
       <c r="DJ53" t="n" s="11">
-        <v>14.374</v>
+        <v>14.356</v>
       </c>
       <c r="DK53" t="n" s="11">
-        <v>15.14</v>
+        <v>15.073</v>
       </c>
       <c r="DL53" t="n" s="11">
-        <v>15.434</v>
+        <v>15.469</v>
       </c>
       <c r="DM53" t="n" s="11">
-        <v>15.481</v>
+        <v>15.495</v>
       </c>
       <c r="DN53" t="n" s="11">
-        <v>15.489</v>
+        <v>15.486</v>
       </c>
       <c r="DO53" t="n" s="11">
-        <v>14.952</v>
+        <v>14.946</v>
       </c>
       <c r="DP53" t="n" s="11">
-        <v>14.907</v>
+        <v>14.903</v>
       </c>
       <c r="DQ53" t="n" s="11">
-        <v>14.958</v>
+        <v>14.961</v>
       </c>
       <c r="DR53" t="n" s="11">
-        <v>15.001</v>
+        <v>14.995</v>
       </c>
       <c r="DS53" t="n" s="11">
-        <v>15.186</v>
+        <v>15.157</v>
       </c>
       <c r="DT53" t="n" s="11">
-        <v>15.191</v>
+        <v>15.183</v>
       </c>
       <c r="DU53" t="n" s="11">
         <v>15.212</v>
       </c>
       <c r="DV53" t="n" s="11">
-        <v>15.24</v>
+        <v>15.234</v>
+      </c>
+      <c r="DW53" t="n" s="11">
+        <v>15.279</v>
+      </c>
+      <c r="DX53" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY53" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ53" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" t="n" s="11">
         <v>31.047</v>
@@ -20684,31 +21312,31 @@
         <v>30.763</v>
       </c>
       <c r="AJ54" t="n" s="11">
-        <v>31.359</v>
+        <v>31.36</v>
       </c>
       <c r="AK54" t="n" s="11">
-        <v>32.06</v>
+        <v>32.061</v>
       </c>
       <c r="AL54" t="n" s="11">
-        <v>32.031</v>
+        <v>32.03</v>
       </c>
       <c r="AM54" t="n" s="11">
         <v>31.53</v>
       </c>
       <c r="AN54" t="n" s="11">
-        <v>30.642</v>
+        <v>30.643</v>
       </c>
       <c r="AO54" t="n" s="11">
-        <v>30.364</v>
+        <v>30.365</v>
       </c>
       <c r="AP54" t="n" s="11">
-        <v>30.249</v>
+        <v>30.248</v>
       </c>
       <c r="AQ54" t="n" s="11">
         <v>33.3</v>
       </c>
       <c r="AR54" t="n" s="11">
-        <v>33.805</v>
+        <v>33.806</v>
       </c>
       <c r="AS54" t="n" s="11">
         <v>34.238</v>
@@ -20876,93 +21504,105 @@
         <v>43.16</v>
       </c>
       <c r="CV54" t="n" s="11">
-        <v>45.019</v>
+        <v>45.018</v>
       </c>
       <c r="CW54" t="n" s="11">
         <v>45.297</v>
       </c>
       <c r="CX54" t="n" s="11">
-        <v>46.364</v>
+        <v>46.372</v>
       </c>
       <c r="CY54" t="n" s="11">
-        <v>46.324</v>
+        <v>46.317</v>
       </c>
       <c r="CZ54" t="n" s="11">
-        <v>46.425</v>
+        <v>46.412</v>
       </c>
       <c r="DA54" t="n" s="11">
-        <v>47.766</v>
+        <v>47.741</v>
       </c>
       <c r="DB54" t="n" s="11">
-        <v>48.188</v>
+        <v>48.314</v>
       </c>
       <c r="DC54" t="n" s="11">
-        <v>49.763</v>
+        <v>49.631</v>
       </c>
       <c r="DD54" t="n" s="11">
-        <v>48.829</v>
+        <v>48.882</v>
       </c>
       <c r="DE54" t="n" s="11">
-        <v>51.201</v>
+        <v>51.107</v>
       </c>
       <c r="DF54" t="n" s="11">
-        <v>53.672</v>
+        <v>53.828</v>
       </c>
       <c r="DG54" t="n" s="11">
-        <v>56.048</v>
+        <v>55.941</v>
       </c>
       <c r="DH54" t="n" s="11">
-        <v>52.366</v>
+        <v>52.598</v>
       </c>
       <c r="DI54" t="n" s="11">
-        <v>57.623</v>
+        <v>57.341</v>
       </c>
       <c r="DJ54" t="n" s="11">
-        <v>58.316</v>
+        <v>57.927</v>
       </c>
       <c r="DK54" t="n" s="11">
-        <v>57.158</v>
+        <v>57.818</v>
       </c>
       <c r="DL54" t="n" s="11">
-        <v>47.14</v>
+        <v>47.575</v>
       </c>
       <c r="DM54" t="n" s="11">
-        <v>55.731</v>
+        <v>55.247</v>
       </c>
       <c r="DN54" t="n" s="11">
-        <v>59.13</v>
+        <v>57.679</v>
       </c>
       <c r="DO54" t="n" s="11">
-        <v>69.653</v>
+        <v>71.316</v>
       </c>
       <c r="DP54" t="n" s="11">
-        <v>91.746</v>
+        <v>92.301</v>
       </c>
       <c r="DQ54" t="n" s="11">
-        <v>75.721</v>
+        <v>75.254</v>
       </c>
       <c r="DR54" t="n" s="11">
-        <v>89.911</v>
+        <v>87.83</v>
       </c>
       <c r="DS54" t="n" s="11">
-        <v>99.741</v>
+        <v>101.688</v>
       </c>
       <c r="DT54" t="n" s="11">
-        <v>76.643</v>
+        <v>77.383</v>
       </c>
       <c r="DU54" t="n" s="11">
-        <v>62.919</v>
+        <v>62.798</v>
       </c>
       <c r="DV54" t="n" s="11">
-        <v>71.498</v>
+        <v>69.635</v>
+      </c>
+      <c r="DW54" t="n" s="11">
+        <v>66.274</v>
+      </c>
+      <c r="DX54" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY54" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ54" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C55" t="n" s="11">
         <v>247.489</v>
@@ -21064,31 +21704,31 @@
         <v>317.631</v>
       </c>
       <c r="AJ55" t="n" s="11">
-        <v>320.085</v>
+        <v>320.086</v>
       </c>
       <c r="AK55" t="n" s="11">
-        <v>321.731</v>
+        <v>321.732</v>
       </c>
       <c r="AL55" t="n" s="11">
-        <v>324.804</v>
+        <v>324.803</v>
       </c>
       <c r="AM55" t="n" s="11">
         <v>325.48</v>
       </c>
       <c r="AN55" t="n" s="11">
-        <v>327.188</v>
+        <v>327.189</v>
       </c>
       <c r="AO55" t="n" s="11">
-        <v>328.656</v>
+        <v>328.657</v>
       </c>
       <c r="AP55" t="n" s="11">
-        <v>328.556</v>
+        <v>328.555</v>
       </c>
       <c r="AQ55" t="n" s="11">
         <v>337.627</v>
       </c>
       <c r="AR55" t="n" s="11">
-        <v>340.018</v>
+        <v>340.019</v>
       </c>
       <c r="AS55" t="n" s="11">
         <v>340.92</v>
@@ -21256,93 +21896,105 @@
         <v>439.764</v>
       </c>
       <c r="CV55" t="n" s="11">
-        <v>443.794</v>
+        <v>443.793</v>
       </c>
       <c r="CW55" t="n" s="11">
         <v>447.708</v>
       </c>
       <c r="CX55" t="n" s="11">
-        <v>451.723</v>
+        <v>451.731</v>
       </c>
       <c r="CY55" t="n" s="11">
-        <v>454.456</v>
+        <v>454.449</v>
       </c>
       <c r="CZ55" t="n" s="11">
-        <v>459.406</v>
+        <v>459.393</v>
       </c>
       <c r="DA55" t="n" s="11">
-        <v>462.357</v>
+        <v>462.332</v>
       </c>
       <c r="DB55" t="n" s="11">
-        <v>466.785</v>
+        <v>466.911</v>
       </c>
       <c r="DC55" t="n" s="11">
-        <v>471.13</v>
+        <v>470.996</v>
       </c>
       <c r="DD55" t="n" s="11">
-        <v>472.328</v>
+        <v>472.371</v>
       </c>
       <c r="DE55" t="n" s="11">
-        <v>479.326</v>
+        <v>479.21</v>
       </c>
       <c r="DF55" t="n" s="11">
-        <v>483.439</v>
+        <v>483.617</v>
       </c>
       <c r="DG55" t="n" s="11">
-        <v>490.638</v>
+        <v>490.707</v>
       </c>
       <c r="DH55" t="n" s="11">
-        <v>488.707</v>
+        <v>488.999</v>
       </c>
       <c r="DI55" t="n" s="11">
-        <v>495.497</v>
+        <v>494.717</v>
       </c>
       <c r="DJ55" t="n" s="11">
-        <v>500.968</v>
+        <v>500.017</v>
       </c>
       <c r="DK55" t="n" s="11">
-        <v>503.102</v>
+        <v>505.133</v>
       </c>
       <c r="DL55" t="n" s="11">
-        <v>497.435</v>
+        <v>498.465</v>
       </c>
       <c r="DM55" t="n" s="11">
-        <v>508.547</v>
+        <v>506.807</v>
       </c>
       <c r="DN55" t="n" s="11">
-        <v>511.774</v>
+        <v>508.284</v>
       </c>
       <c r="DO55" t="n" s="11">
-        <v>520.707</v>
+        <v>524.743</v>
       </c>
       <c r="DP55" t="n" s="11">
-        <v>487.484</v>
+        <v>489.517</v>
       </c>
       <c r="DQ55" t="n" s="11">
-        <v>510.014</v>
+        <v>507.678</v>
       </c>
       <c r="DR55" t="n" s="11">
-        <v>515.762</v>
+        <v>511.338</v>
       </c>
       <c r="DS55" t="n" s="11">
-        <v>519.807</v>
+        <v>523.171</v>
       </c>
       <c r="DT55" t="n" s="11">
-        <v>504.598</v>
+        <v>507.266</v>
       </c>
       <c r="DU55" t="n" s="11">
-        <v>520.362</v>
+        <v>519.109</v>
       </c>
       <c r="DV55" t="n" s="11">
-        <v>527.905</v>
+        <v>528.342</v>
+      </c>
+      <c r="DW55" t="n" s="11">
+        <v>543.551</v>
+      </c>
+      <c r="DX55" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY55" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ55" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="10">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C56" t="n" s="11">
         <v>12.5</v>
@@ -21657,7 +22309,7 @@
         <v>10.3</v>
       </c>
       <c r="DC56" t="n" s="11">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="DD56" t="n" s="11">
         <v>10.3</v>
@@ -21672,7 +22324,7 @@
         <v>11.4</v>
       </c>
       <c r="DH56" t="n" s="11">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="DI56" t="n" s="11">
         <v>11.6</v>
@@ -21687,60 +22339,72 @@
         <v>9.5</v>
       </c>
       <c r="DM56" t="n" s="11">
-        <v>11.0</v>
+        <v>10.9</v>
       </c>
       <c r="DN56" t="n" s="11">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="DO56" t="n" s="11">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="DP56" t="n" s="11">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="DQ56" t="n" s="11">
         <v>14.8</v>
       </c>
       <c r="DR56" t="n" s="11">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="DS56" t="n" s="11">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="DT56" t="n" s="11">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="DU56" t="n" s="11">
         <v>12.1</v>
       </c>
       <c r="DV56" t="n" s="11">
-        <v>13.5</v>
+        <v>13.2</v>
+      </c>
+      <c r="DW56" t="n" s="11">
+        <v>12.2</v>
+      </c>
+      <c r="DX56" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY56" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ56" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="12">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="12">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="13">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:DV2"/>
-    <mergeCell ref="A3:DV3"/>
+    <mergeCell ref="A2:DZ2"/>
+    <mergeCell ref="A3:DZ3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
@@ -21774,14 +22438,15 @@
     <mergeCell ref="DK4:DN4"/>
     <mergeCell ref="DO4:DR4"/>
     <mergeCell ref="DS4:DV4"/>
-    <mergeCell ref="A6:DV6"/>
-    <mergeCell ref="A23:DV23"/>
-    <mergeCell ref="A40:DV40"/>
-    <mergeCell ref="A1:DV1"/>
+    <mergeCell ref="DW4:DZ4"/>
+    <mergeCell ref="A6:DZ6"/>
+    <mergeCell ref="A23:DZ23"/>
+    <mergeCell ref="A40:DZ40"/>
+    <mergeCell ref="A1:DZ1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:18:16&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:55:06&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - saving of households quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - saving of households quarters.xlsx
@@ -213,7 +213,7 @@
     <t>Including non-profit institutions serving households.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:54:59</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:10:21</t>
   </si>
 </sst>
 </file>
@@ -22446,7 +22446,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:55:06&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:10:28&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>